--- a/app/static/files/plantilla_becas.xlsx
+++ b/app/static/files/plantilla_becas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduardo.vicente\Proyectos\SabeProject\app\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A6C10F-968B-4C28-966F-675D7653709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8D756-979A-4E8B-A00A-28C6BF90F446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,6 +203,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,10 +396,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +408,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,6 +428,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="6" tint="0.39997558519241921"/>
@@ -1317,21 +1321,21 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1347,58 +1351,58 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="e" vm="1">
+      <c r="A2" s="14" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1442,7 +1446,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1454,7 +1458,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -1466,7 +1470,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
@@ -1478,7 +1482,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
@@ -1490,7 +1494,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
@@ -1502,7 +1506,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -1514,7 +1518,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1526,7 +1530,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
@@ -1538,7 +1542,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1550,7 +1554,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
@@ -1562,7 +1566,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
@@ -1574,7 +1578,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
@@ -1586,7 +1590,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -1598,7 +1602,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1610,7 +1614,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -1622,7 +1626,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -1634,7 +1638,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -1646,7 +1650,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
@@ -1658,7 +1662,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
@@ -1670,7 +1674,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
@@ -1682,7 +1686,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
@@ -1694,7 +1698,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -1706,7 +1710,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
@@ -1718,7 +1722,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -1730,7 +1734,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
@@ -1742,7 +1746,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -1754,7 +1758,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
@@ -1766,7 +1770,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -1778,7 +1782,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
@@ -1790,7 +1794,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
@@ -1802,7 +1806,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
@@ -1814,7 +1818,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
@@ -1826,7 +1830,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
@@ -1838,7 +1842,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -1850,7 +1854,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
@@ -1862,7 +1866,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
@@ -1874,7 +1878,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
@@ -1886,7 +1890,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
@@ -1898,7 +1902,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
@@ -1910,7 +1914,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
@@ -1922,7 +1926,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
@@ -1934,7 +1938,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
@@ -1946,7 +1950,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="9"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
@@ -1958,7 +1962,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
@@ -1970,7 +1974,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
@@ -1982,7 +1986,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="9"/>
+      <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
@@ -1994,7 +1998,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
@@ -2006,7 +2010,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
@@ -2018,7 +2022,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="9"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
@@ -2030,7 +2034,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="9"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
@@ -2042,7 +2046,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
@@ -2054,7 +2058,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="9"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
@@ -2066,7 +2070,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="15"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
@@ -2078,7 +2082,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="9"/>
+      <c r="J60" s="15"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
@@ -2090,7 +2094,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="9"/>
+      <c r="J61" s="15"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
@@ -2102,7 +2106,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="9"/>
+      <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
@@ -2114,7 +2118,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="9"/>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
@@ -2126,7 +2130,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="9"/>
+      <c r="J64" s="15"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
@@ -2138,7 +2142,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="9"/>
+      <c r="J65" s="15"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
@@ -2150,7 +2154,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="9"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
@@ -2162,7 +2166,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="9"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
@@ -2174,7 +2178,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="15"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
@@ -2186,7 +2190,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="9"/>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
@@ -2198,7 +2202,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="9"/>
+      <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
@@ -2210,7 +2214,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="9"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
@@ -2222,7 +2226,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="15"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
@@ -2234,7 +2238,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="9"/>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
@@ -2246,7 +2250,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="9"/>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
@@ -2258,7 +2262,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="9"/>
+      <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
@@ -2270,7 +2274,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="9"/>
+      <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
@@ -2282,7 +2286,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
-      <c r="J77" s="9"/>
+      <c r="J77" s="15"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
@@ -2294,7 +2298,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="9"/>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
@@ -2306,7 +2310,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="9"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
@@ -2318,7 +2322,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
@@ -2330,7 +2334,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="9"/>
+      <c r="J81" s="15"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
@@ -2342,7 +2346,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="9"/>
+      <c r="J82" s="15"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
@@ -2354,7 +2358,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="9"/>
+      <c r="J83" s="15"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
@@ -2366,7 +2370,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="15"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
@@ -2378,7 +2382,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="9"/>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
@@ -2390,7 +2394,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="9"/>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
@@ -2402,7 +2406,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="9"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
@@ -2414,7 +2418,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="9"/>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
@@ -2426,7 +2430,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="9"/>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
@@ -2438,7 +2442,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="9"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
@@ -2450,7 +2454,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="9"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
@@ -2462,7 +2466,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="9"/>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
@@ -2474,7 +2478,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="9"/>
+      <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
@@ -2486,7 +2490,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="9"/>
+      <c r="J94" s="15"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
@@ -2498,7 +2502,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="9"/>
+      <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
@@ -2510,7 +2514,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="9"/>
+      <c r="J96" s="15"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
@@ -2522,7 +2526,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="15"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
@@ -2534,7 +2538,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
@@ -2546,7 +2550,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="9"/>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
@@ -2558,7 +2562,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
@@ -2570,7 +2574,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
-      <c r="J101" s="9"/>
+      <c r="J101" s="15"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
@@ -2582,7 +2586,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="9"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
@@ -2594,7 +2598,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="9"/>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
@@ -2606,7 +2610,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="9"/>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
@@ -2618,7 +2622,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="9"/>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
@@ -2630,7 +2634,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="9"/>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
@@ -2642,7 +2646,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="9"/>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
@@ -2654,7 +2658,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="9"/>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
@@ -2666,7 +2670,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="9"/>
+      <c r="J109" s="15"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
@@ -2678,7 +2682,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
-      <c r="J110" s="9"/>
+      <c r="J110" s="15"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
@@ -2690,7 +2694,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
-      <c r="J111" s="9"/>
+      <c r="J111" s="15"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
@@ -2702,7 +2706,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="9"/>
+      <c r="J112" s="15"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
@@ -2714,7 +2718,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
-      <c r="J113" s="9"/>
+      <c r="J113" s="15"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
@@ -2726,7 +2730,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
-      <c r="J114" s="9"/>
+      <c r="J114" s="15"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
@@ -2738,7 +2742,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
-      <c r="J115" s="9"/>
+      <c r="J115" s="15"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
@@ -2750,7 +2754,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
-      <c r="J116" s="9"/>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
@@ -2762,7 +2766,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
-      <c r="J117" s="9"/>
+      <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
@@ -2774,7 +2778,7 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="9"/>
+      <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
@@ -2786,7 +2790,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
-      <c r="J119" s="9"/>
+      <c r="J119" s="15"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
@@ -2798,7 +2802,7 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
-      <c r="J120" s="9"/>
+      <c r="J120" s="15"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
@@ -2810,7 +2814,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
-      <c r="J121" s="9"/>
+      <c r="J121" s="15"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
@@ -2822,7 +2826,7 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
-      <c r="J122" s="9"/>
+      <c r="J122" s="15"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
@@ -2834,7 +2838,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="15"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
@@ -2846,7 +2850,7 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="15"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
@@ -2858,7 +2862,7 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
-      <c r="J125" s="9"/>
+      <c r="J125" s="15"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
@@ -2870,7 +2874,7 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
-      <c r="J126" s="9"/>
+      <c r="J126" s="15"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
@@ -2882,7 +2886,7 @@
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="9"/>
+      <c r="J127" s="15"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
@@ -2894,7 +2898,7 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
-      <c r="J128" s="9"/>
+      <c r="J128" s="15"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
@@ -2906,7 +2910,7 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
-      <c r="J129" s="9"/>
+      <c r="J129" s="15"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
@@ -2918,7 +2922,7 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="9"/>
+      <c r="J130" s="15"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
@@ -2930,7 +2934,7 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
-      <c r="J131" s="9"/>
+      <c r="J131" s="15"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
@@ -2942,7 +2946,7 @@
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
-      <c r="J132" s="9"/>
+      <c r="J132" s="15"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
@@ -2954,7 +2958,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
-      <c r="J133" s="9"/>
+      <c r="J133" s="15"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
@@ -2966,7 +2970,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
-      <c r="J134" s="9"/>
+      <c r="J134" s="15"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
@@ -2978,7 +2982,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
-      <c r="J135" s="9"/>
+      <c r="J135" s="15"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
@@ -2990,7 +2994,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
-      <c r="J136" s="9"/>
+      <c r="J136" s="15"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
@@ -3002,7 +3006,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="9"/>
+      <c r="J137" s="15"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
@@ -3014,7 +3018,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
-      <c r="J138" s="9"/>
+      <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
@@ -3026,7 +3030,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
-      <c r="J139" s="9"/>
+      <c r="J139" s="15"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
@@ -3038,7 +3042,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
-      <c r="J140" s="9"/>
+      <c r="J140" s="15"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
@@ -3050,7 +3054,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
-      <c r="J141" s="9"/>
+      <c r="J141" s="15"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
@@ -3062,7 +3066,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
-      <c r="J142" s="9"/>
+      <c r="J142" s="15"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
@@ -3074,7 +3078,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="9"/>
+      <c r="J143" s="15"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
@@ -3086,7 +3090,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
-      <c r="J144" s="9"/>
+      <c r="J144" s="15"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
@@ -3098,7 +3102,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
-      <c r="J145" s="9"/>
+      <c r="J145" s="15"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
@@ -3110,7 +3114,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
-      <c r="J146" s="9"/>
+      <c r="J146" s="15"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
@@ -3122,7 +3126,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
-      <c r="J147" s="9"/>
+      <c r="J147" s="15"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
@@ -3134,7 +3138,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
-      <c r="J148" s="9"/>
+      <c r="J148" s="15"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
@@ -3146,7 +3150,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="9"/>
+      <c r="J149" s="15"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
@@ -3158,7 +3162,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
-      <c r="J150" s="9"/>
+      <c r="J150" s="15"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
@@ -3170,7 +3174,7 @@
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
-      <c r="J151" s="9"/>
+      <c r="J151" s="15"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
@@ -3182,7 +3186,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
-      <c r="J152" s="9"/>
+      <c r="J152" s="15"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
@@ -3194,7 +3198,7 @@
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="15"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
@@ -3206,7 +3210,7 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
-      <c r="J154" s="9"/>
+      <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
@@ -3218,7 +3222,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="9"/>
+      <c r="J155" s="15"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
@@ -3230,7 +3234,7 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
-      <c r="J156" s="9"/>
+      <c r="J156" s="15"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
@@ -3242,7 +3246,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
-      <c r="J157" s="9"/>
+      <c r="J157" s="15"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
@@ -3254,7 +3258,7 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
-      <c r="J158" s="9"/>
+      <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
@@ -3266,7 +3270,7 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
-      <c r="J159" s="9"/>
+      <c r="J159" s="15"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
@@ -3278,7 +3282,7 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
-      <c r="J160" s="9"/>
+      <c r="J160" s="15"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
@@ -3290,7 +3294,7 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="9"/>
+      <c r="J161" s="15"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
@@ -3302,7 +3306,7 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="9"/>
+      <c r="J162" s="15"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
@@ -3314,7 +3318,7 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
-      <c r="J163" s="9"/>
+      <c r="J163" s="15"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
@@ -3326,7 +3330,7 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
-      <c r="J164" s="9"/>
+      <c r="J164" s="15"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
@@ -3338,7 +3342,7 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
-      <c r="J165" s="9"/>
+      <c r="J165" s="15"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
@@ -3350,7 +3354,7 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
-      <c r="J166" s="9"/>
+      <c r="J166" s="15"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
@@ -3362,7 +3366,7 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
-      <c r="J167" s="9"/>
+      <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
@@ -3374,7 +3378,7 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
@@ -3386,7 +3390,7 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
-      <c r="J169" s="9"/>
+      <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
@@ -3398,7 +3402,7 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
-      <c r="J170" s="9"/>
+      <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
@@ -3410,7 +3414,7 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
-      <c r="J171" s="9"/>
+      <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
@@ -3422,7 +3426,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
-      <c r="J172" s="9"/>
+      <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
@@ -3434,7 +3438,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="15"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
@@ -3446,7 +3450,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="15"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
@@ -3458,7 +3462,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
-      <c r="J175" s="9"/>
+      <c r="J175" s="15"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
@@ -3470,7 +3474,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
-      <c r="J176" s="9"/>
+      <c r="J176" s="15"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
@@ -3482,7 +3486,7 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
-      <c r="J177" s="9"/>
+      <c r="J177" s="15"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
@@ -3494,7 +3498,7 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
-      <c r="J178" s="9"/>
+      <c r="J178" s="15"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
@@ -3506,7 +3510,7 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
-      <c r="J179" s="9"/>
+      <c r="J179" s="15"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
@@ -3518,7 +3522,7 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
-      <c r="J180" s="9"/>
+      <c r="J180" s="15"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
@@ -3530,7 +3534,7 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
-      <c r="J181" s="9"/>
+      <c r="J181" s="15"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
@@ -3542,7 +3546,7 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
-      <c r="J182" s="9"/>
+      <c r="J182" s="15"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
@@ -3554,7 +3558,7 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
-      <c r="J183" s="9"/>
+      <c r="J183" s="15"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
@@ -3566,7 +3570,7 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
-      <c r="J184" s="9"/>
+      <c r="J184" s="15"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
@@ -3578,7 +3582,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
-      <c r="J185" s="9"/>
+      <c r="J185" s="15"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
@@ -3590,7 +3594,7 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
-      <c r="J186" s="9"/>
+      <c r="J186" s="15"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
@@ -3602,7 +3606,7 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
-      <c r="J187" s="9"/>
+      <c r="J187" s="15"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
@@ -3614,7 +3618,7 @@
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
-      <c r="J188" s="9"/>
+      <c r="J188" s="15"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
@@ -3626,7 +3630,7 @@
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
-      <c r="J189" s="9"/>
+      <c r="J189" s="15"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
@@ -3638,7 +3642,7 @@
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
-      <c r="J190" s="9"/>
+      <c r="J190" s="15"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
@@ -3650,7 +3654,7 @@
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
-      <c r="J191" s="9"/>
+      <c r="J191" s="15"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
@@ -3662,7 +3666,7 @@
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
-      <c r="J192" s="9"/>
+      <c r="J192" s="15"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
@@ -3674,7 +3678,7 @@
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
-      <c r="J193" s="9"/>
+      <c r="J193" s="15"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
@@ -3686,7 +3690,7 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
-      <c r="J194" s="9"/>
+      <c r="J194" s="15"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
@@ -3698,7 +3702,7 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
-      <c r="J195" s="9"/>
+      <c r="J195" s="15"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
@@ -3710,7 +3714,7 @@
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
-      <c r="J196" s="9"/>
+      <c r="J196" s="15"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
@@ -3722,7 +3726,7 @@
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
-      <c r="J197" s="9"/>
+      <c r="J197" s="15"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
@@ -3734,7 +3738,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
-      <c r="J198" s="9"/>
+      <c r="J198" s="15"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
@@ -3746,7 +3750,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
-      <c r="J199" s="9"/>
+      <c r="J199" s="15"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
@@ -3758,7 +3762,7 @@
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
-      <c r="J200" s="9"/>
+      <c r="J200" s="15"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
@@ -3770,7 +3774,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
-      <c r="J201" s="9"/>
+      <c r="J201" s="15"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
@@ -3782,7 +3786,7 @@
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
-      <c r="J202" s="9"/>
+      <c r="J202" s="15"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
@@ -3794,7 +3798,7 @@
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
-      <c r="J203" s="9"/>
+      <c r="J203" s="15"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
@@ -3806,7 +3810,7 @@
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
-      <c r="J204" s="9"/>
+      <c r="J204" s="15"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
@@ -3818,7 +3822,7 @@
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
-      <c r="J205" s="9"/>
+      <c r="J205" s="15"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
@@ -3830,7 +3834,7 @@
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
-      <c r="J206" s="9"/>
+      <c r="J206" s="15"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
@@ -3842,7 +3846,7 @@
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
-      <c r="J207" s="9"/>
+      <c r="J207" s="15"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
@@ -3854,7 +3858,7 @@
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
-      <c r="J208" s="9"/>
+      <c r="J208" s="15"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
@@ -3866,7 +3870,7 @@
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
-      <c r="J209" s="9"/>
+      <c r="J209" s="15"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
@@ -3878,7 +3882,7 @@
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
-      <c r="J210" s="9"/>
+      <c r="J210" s="15"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
@@ -3890,7 +3894,7 @@
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
-      <c r="J211" s="9"/>
+      <c r="J211" s="15"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
@@ -3902,7 +3906,7 @@
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
-      <c r="J212" s="9"/>
+      <c r="J212" s="15"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
@@ -3914,7 +3918,7 @@
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
-      <c r="J213" s="9"/>
+      <c r="J213" s="15"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
@@ -3926,7 +3930,7 @@
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
-      <c r="J214" s="9"/>
+      <c r="J214" s="15"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
@@ -3938,7 +3942,7 @@
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
-      <c r="J215" s="9"/>
+      <c r="J215" s="15"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
@@ -3950,7 +3954,7 @@
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
-      <c r="J216" s="9"/>
+      <c r="J216" s="15"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
@@ -3962,7 +3966,7 @@
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
-      <c r="J217" s="9"/>
+      <c r="J217" s="15"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
@@ -3974,7 +3978,7 @@
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
-      <c r="J218" s="9"/>
+      <c r="J218" s="15"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
@@ -3986,7 +3990,7 @@
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
-      <c r="J219" s="9"/>
+      <c r="J219" s="15"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
@@ -3998,7 +4002,7 @@
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
       <c r="I220" s="8"/>
-      <c r="J220" s="9"/>
+      <c r="J220" s="15"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
@@ -4010,7 +4014,7 @@
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
       <c r="I221" s="8"/>
-      <c r="J221" s="9"/>
+      <c r="J221" s="15"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
@@ -4022,7 +4026,7 @@
       <c r="G222" s="8"/>
       <c r="H222" s="8"/>
       <c r="I222" s="8"/>
-      <c r="J222" s="9"/>
+      <c r="J222" s="15"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
@@ -4034,7 +4038,7 @@
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
       <c r="I223" s="8"/>
-      <c r="J223" s="9"/>
+      <c r="J223" s="15"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
@@ -4046,7 +4050,7 @@
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
       <c r="I224" s="8"/>
-      <c r="J224" s="9"/>
+      <c r="J224" s="15"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
@@ -4058,7 +4062,7 @@
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
       <c r="I225" s="8"/>
-      <c r="J225" s="9"/>
+      <c r="J225" s="15"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
@@ -4070,7 +4074,7 @@
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
       <c r="I226" s="8"/>
-      <c r="J226" s="9"/>
+      <c r="J226" s="15"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
@@ -4082,7 +4086,7 @@
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
       <c r="I227" s="8"/>
-      <c r="J227" s="9"/>
+      <c r="J227" s="15"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
@@ -4094,7 +4098,7 @@
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
       <c r="I228" s="8"/>
-      <c r="J228" s="9"/>
+      <c r="J228" s="15"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
@@ -4106,7 +4110,7 @@
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
       <c r="I229" s="8"/>
-      <c r="J229" s="9"/>
+      <c r="J229" s="15"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
@@ -4118,7 +4122,7 @@
       <c r="G230" s="8"/>
       <c r="H230" s="8"/>
       <c r="I230" s="8"/>
-      <c r="J230" s="9"/>
+      <c r="J230" s="15"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
@@ -4130,7 +4134,7 @@
       <c r="G231" s="8"/>
       <c r="H231" s="8"/>
       <c r="I231" s="8"/>
-      <c r="J231" s="9"/>
+      <c r="J231" s="15"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
@@ -4142,7 +4146,7 @@
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
-      <c r="J232" s="9"/>
+      <c r="J232" s="15"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
@@ -4154,7 +4158,7 @@
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
       <c r="I233" s="8"/>
-      <c r="J233" s="9"/>
+      <c r="J233" s="15"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
@@ -4166,7 +4170,7 @@
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
-      <c r="J234" s="9"/>
+      <c r="J234" s="15"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
@@ -4178,7 +4182,7 @@
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
       <c r="I235" s="8"/>
-      <c r="J235" s="9"/>
+      <c r="J235" s="15"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
@@ -4190,7 +4194,7 @@
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
-      <c r="J236" s="9"/>
+      <c r="J236" s="15"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
@@ -4202,7 +4206,7 @@
       <c r="G237" s="8"/>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
-      <c r="J237" s="9"/>
+      <c r="J237" s="15"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
@@ -4214,7 +4218,7 @@
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
-      <c r="J238" s="9"/>
+      <c r="J238" s="15"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
@@ -4226,7 +4230,7 @@
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
-      <c r="J239" s="9"/>
+      <c r="J239" s="15"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
@@ -4238,7 +4242,7 @@
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
-      <c r="J240" s="9"/>
+      <c r="J240" s="15"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
@@ -4250,7 +4254,7 @@
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
-      <c r="J241" s="9"/>
+      <c r="J241" s="15"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
@@ -4262,7 +4266,7 @@
       <c r="G242" s="8"/>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
-      <c r="J242" s="9"/>
+      <c r="J242" s="15"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
@@ -4274,7 +4278,7 @@
       <c r="G243" s="8"/>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
-      <c r="J243" s="9"/>
+      <c r="J243" s="15"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
@@ -4286,7 +4290,7 @@
       <c r="G244" s="8"/>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
-      <c r="J244" s="9"/>
+      <c r="J244" s="15"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
@@ -4298,7 +4302,7 @@
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
-      <c r="J245" s="9"/>
+      <c r="J245" s="15"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
@@ -4310,7 +4314,7 @@
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
-      <c r="J246" s="9"/>
+      <c r="J246" s="15"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
@@ -4322,7 +4326,7 @@
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
-      <c r="J247" s="9"/>
+      <c r="J247" s="15"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
@@ -4334,7 +4338,7 @@
       <c r="G248" s="8"/>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
-      <c r="J248" s="9"/>
+      <c r="J248" s="15"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
@@ -4346,7 +4350,7 @@
       <c r="G249" s="8"/>
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
-      <c r="J249" s="9"/>
+      <c r="J249" s="15"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
@@ -4358,7 +4362,7 @@
       <c r="G250" s="8"/>
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
-      <c r="J250" s="9"/>
+      <c r="J250" s="15"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
@@ -4370,7 +4374,7 @@
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
-      <c r="J251" s="9"/>
+      <c r="J251" s="15"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
@@ -4382,7 +4386,7 @@
       <c r="G252" s="8"/>
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
-      <c r="J252" s="9"/>
+      <c r="J252" s="15"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
@@ -4394,7 +4398,7 @@
       <c r="G253" s="8"/>
       <c r="H253" s="8"/>
       <c r="I253" s="8"/>
-      <c r="J253" s="9"/>
+      <c r="J253" s="15"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
@@ -4406,7 +4410,7 @@
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
-      <c r="J254" s="9"/>
+      <c r="J254" s="15"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
@@ -4418,7 +4422,7 @@
       <c r="G255" s="8"/>
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
-      <c r="J255" s="9"/>
+      <c r="J255" s="15"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
@@ -4430,7 +4434,7 @@
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
       <c r="I256" s="8"/>
-      <c r="J256" s="9"/>
+      <c r="J256" s="15"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
@@ -4442,7 +4446,7 @@
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
-      <c r="J257" s="9"/>
+      <c r="J257" s="15"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
@@ -4454,7 +4458,7 @@
       <c r="G258" s="8"/>
       <c r="H258" s="8"/>
       <c r="I258" s="8"/>
-      <c r="J258" s="9"/>
+      <c r="J258" s="15"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
@@ -4466,7 +4470,7 @@
       <c r="G259" s="8"/>
       <c r="H259" s="8"/>
       <c r="I259" s="8"/>
-      <c r="J259" s="9"/>
+      <c r="J259" s="15"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
@@ -4478,7 +4482,7 @@
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
       <c r="I260" s="8"/>
-      <c r="J260" s="9"/>
+      <c r="J260" s="15"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
@@ -4490,7 +4494,7 @@
       <c r="G261" s="8"/>
       <c r="H261" s="8"/>
       <c r="I261" s="8"/>
-      <c r="J261" s="9"/>
+      <c r="J261" s="15"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
@@ -4502,7 +4506,7 @@
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
       <c r="I262" s="8"/>
-      <c r="J262" s="9"/>
+      <c r="J262" s="15"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
@@ -4514,7 +4518,7 @@
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
       <c r="I263" s="8"/>
-      <c r="J263" s="9"/>
+      <c r="J263" s="15"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
@@ -4526,7 +4530,7 @@
       <c r="G264" s="8"/>
       <c r="H264" s="8"/>
       <c r="I264" s="8"/>
-      <c r="J264" s="9"/>
+      <c r="J264" s="15"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
@@ -4538,7 +4542,7 @@
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
       <c r="I265" s="8"/>
-      <c r="J265" s="9"/>
+      <c r="J265" s="15"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
@@ -4550,7 +4554,7 @@
       <c r="G266" s="8"/>
       <c r="H266" s="8"/>
       <c r="I266" s="8"/>
-      <c r="J266" s="9"/>
+      <c r="J266" s="15"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
@@ -4562,7 +4566,7 @@
       <c r="G267" s="8"/>
       <c r="H267" s="8"/>
       <c r="I267" s="8"/>
-      <c r="J267" s="9"/>
+      <c r="J267" s="15"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
@@ -4574,7 +4578,7 @@
       <c r="G268" s="8"/>
       <c r="H268" s="8"/>
       <c r="I268" s="8"/>
-      <c r="J268" s="9"/>
+      <c r="J268" s="15"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
@@ -4586,7 +4590,7 @@
       <c r="G269" s="8"/>
       <c r="H269" s="8"/>
       <c r="I269" s="8"/>
-      <c r="J269" s="9"/>
+      <c r="J269" s="15"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
@@ -4598,7 +4602,7 @@
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
       <c r="I270" s="8"/>
-      <c r="J270" s="9"/>
+      <c r="J270" s="15"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
@@ -4610,7 +4614,7 @@
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
       <c r="I271" s="8"/>
-      <c r="J271" s="9"/>
+      <c r="J271" s="15"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
@@ -4622,7 +4626,7 @@
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
       <c r="I272" s="8"/>
-      <c r="J272" s="9"/>
+      <c r="J272" s="15"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
@@ -4634,7 +4638,7 @@
       <c r="G273" s="8"/>
       <c r="H273" s="8"/>
       <c r="I273" s="8"/>
-      <c r="J273" s="9"/>
+      <c r="J273" s="15"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
@@ -4646,7 +4650,7 @@
       <c r="G274" s="8"/>
       <c r="H274" s="8"/>
       <c r="I274" s="8"/>
-      <c r="J274" s="9"/>
+      <c r="J274" s="15"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
@@ -4658,7 +4662,7 @@
       <c r="G275" s="8"/>
       <c r="H275" s="8"/>
       <c r="I275" s="8"/>
-      <c r="J275" s="9"/>
+      <c r="J275" s="15"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
@@ -4670,7 +4674,7 @@
       <c r="G276" s="8"/>
       <c r="H276" s="8"/>
       <c r="I276" s="8"/>
-      <c r="J276" s="9"/>
+      <c r="J276" s="15"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
@@ -4682,7 +4686,7 @@
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
-      <c r="J277" s="9"/>
+      <c r="J277" s="15"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
@@ -4694,7 +4698,7 @@
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
-      <c r="J278" s="9"/>
+      <c r="J278" s="15"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
@@ -4706,7 +4710,7 @@
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
-      <c r="J279" s="9"/>
+      <c r="J279" s="15"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
@@ -4718,7 +4722,7 @@
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
-      <c r="J280" s="9"/>
+      <c r="J280" s="15"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
@@ -4730,7 +4734,7 @@
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
-      <c r="J281" s="9"/>
+      <c r="J281" s="15"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
@@ -4742,7 +4746,7 @@
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
-      <c r="J282" s="9"/>
+      <c r="J282" s="15"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
@@ -4754,7 +4758,7 @@
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
-      <c r="J283" s="9"/>
+      <c r="J283" s="15"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
@@ -4766,7 +4770,7 @@
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
-      <c r="J284" s="9"/>
+      <c r="J284" s="15"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
@@ -4778,7 +4782,7 @@
       <c r="G285" s="8"/>
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
-      <c r="J285" s="9"/>
+      <c r="J285" s="15"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
@@ -4790,7 +4794,7 @@
       <c r="G286" s="8"/>
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
-      <c r="J286" s="9"/>
+      <c r="J286" s="15"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
@@ -4802,7 +4806,7 @@
       <c r="G287" s="8"/>
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
-      <c r="J287" s="9"/>
+      <c r="J287" s="15"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
@@ -4814,7 +4818,7 @@
       <c r="G288" s="8"/>
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
-      <c r="J288" s="9"/>
+      <c r="J288" s="15"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
@@ -4826,7 +4830,7 @@
       <c r="G289" s="8"/>
       <c r="H289" s="8"/>
       <c r="I289" s="8"/>
-      <c r="J289" s="9"/>
+      <c r="J289" s="15"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
@@ -4838,7 +4842,7 @@
       <c r="G290" s="8"/>
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
-      <c r="J290" s="9"/>
+      <c r="J290" s="15"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
@@ -4850,7 +4854,7 @@
       <c r="G291" s="8"/>
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
-      <c r="J291" s="9"/>
+      <c r="J291" s="15"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
@@ -4862,7 +4866,7 @@
       <c r="G292" s="8"/>
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
-      <c r="J292" s="9"/>
+      <c r="J292" s="15"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
@@ -4874,7 +4878,7 @@
       <c r="G293" s="8"/>
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
-      <c r="J293" s="9"/>
+      <c r="J293" s="15"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
@@ -4886,7 +4890,7 @@
       <c r="G294" s="8"/>
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
-      <c r="J294" s="9"/>
+      <c r="J294" s="15"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
@@ -4898,7 +4902,7 @@
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
-      <c r="J295" s="9"/>
+      <c r="J295" s="15"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
@@ -4910,7 +4914,7 @@
       <c r="G296" s="8"/>
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
-      <c r="J296" s="9"/>
+      <c r="J296" s="15"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
@@ -4922,7 +4926,7 @@
       <c r="G297" s="8"/>
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
-      <c r="J297" s="9"/>
+      <c r="J297" s="15"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
@@ -4934,7 +4938,7 @@
       <c r="G298" s="8"/>
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
-      <c r="J298" s="9"/>
+      <c r="J298" s="15"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
@@ -4946,7 +4950,7 @@
       <c r="G299" s="8"/>
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
-      <c r="J299" s="9"/>
+      <c r="J299" s="15"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
@@ -4958,7 +4962,7 @@
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
-      <c r="J300" s="9"/>
+      <c r="J300" s="15"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
@@ -4970,7 +4974,7 @@
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
-      <c r="J301" s="9"/>
+      <c r="J301" s="15"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
@@ -4982,7 +4986,7 @@
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
-      <c r="J302" s="9"/>
+      <c r="J302" s="15"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
@@ -4994,7 +4998,7 @@
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
-      <c r="J303" s="9"/>
+      <c r="J303" s="15"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
@@ -5006,7 +5010,7 @@
       <c r="G304" s="8"/>
       <c r="H304" s="8"/>
       <c r="I304" s="8"/>
-      <c r="J304" s="9"/>
+      <c r="J304" s="15"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
@@ -5018,7 +5022,7 @@
       <c r="G305" s="8"/>
       <c r="H305" s="8"/>
       <c r="I305" s="8"/>
-      <c r="J305" s="9"/>
+      <c r="J305" s="15"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
@@ -5030,7 +5034,7 @@
       <c r="G306" s="8"/>
       <c r="H306" s="8"/>
       <c r="I306" s="8"/>
-      <c r="J306" s="9"/>
+      <c r="J306" s="15"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
@@ -5042,7 +5046,7 @@
       <c r="G307" s="8"/>
       <c r="H307" s="8"/>
       <c r="I307" s="8"/>
-      <c r="J307" s="9"/>
+      <c r="J307" s="15"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
@@ -5054,7 +5058,7 @@
       <c r="G308" s="8"/>
       <c r="H308" s="8"/>
       <c r="I308" s="8"/>
-      <c r="J308" s="9"/>
+      <c r="J308" s="15"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
@@ -5066,7 +5070,7 @@
       <c r="G309" s="8"/>
       <c r="H309" s="8"/>
       <c r="I309" s="8"/>
-      <c r="J309" s="9"/>
+      <c r="J309" s="15"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
@@ -5078,7 +5082,7 @@
       <c r="G310" s="8"/>
       <c r="H310" s="8"/>
       <c r="I310" s="8"/>
-      <c r="J310" s="9"/>
+      <c r="J310" s="15"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
@@ -5090,7 +5094,7 @@
       <c r="G311" s="8"/>
       <c r="H311" s="8"/>
       <c r="I311" s="8"/>
-      <c r="J311" s="9"/>
+      <c r="J311" s="15"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
@@ -5102,7 +5106,7 @@
       <c r="G312" s="8"/>
       <c r="H312" s="8"/>
       <c r="I312" s="8"/>
-      <c r="J312" s="9"/>
+      <c r="J312" s="15"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
@@ -5114,7 +5118,7 @@
       <c r="G313" s="8"/>
       <c r="H313" s="8"/>
       <c r="I313" s="8"/>
-      <c r="J313" s="9"/>
+      <c r="J313" s="15"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
@@ -5126,7 +5130,7 @@
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
       <c r="I314" s="8"/>
-      <c r="J314" s="9"/>
+      <c r="J314" s="15"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
@@ -5138,7 +5142,7 @@
       <c r="G315" s="8"/>
       <c r="H315" s="8"/>
       <c r="I315" s="8"/>
-      <c r="J315" s="9"/>
+      <c r="J315" s="15"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
@@ -5150,7 +5154,7 @@
       <c r="G316" s="8"/>
       <c r="H316" s="8"/>
       <c r="I316" s="8"/>
-      <c r="J316" s="9"/>
+      <c r="J316" s="15"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
@@ -5162,7 +5166,7 @@
       <c r="G317" s="8"/>
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
-      <c r="J317" s="9"/>
+      <c r="J317" s="15"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
@@ -5174,7 +5178,7 @@
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
       <c r="I318" s="8"/>
-      <c r="J318" s="9"/>
+      <c r="J318" s="15"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
@@ -5186,7 +5190,7 @@
       <c r="G319" s="8"/>
       <c r="H319" s="8"/>
       <c r="I319" s="8"/>
-      <c r="J319" s="9"/>
+      <c r="J319" s="15"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
@@ -5198,7 +5202,7 @@
       <c r="G320" s="8"/>
       <c r="H320" s="8"/>
       <c r="I320" s="8"/>
-      <c r="J320" s="9"/>
+      <c r="J320" s="15"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
@@ -5210,7 +5214,7 @@
       <c r="G321" s="8"/>
       <c r="H321" s="8"/>
       <c r="I321" s="8"/>
-      <c r="J321" s="9"/>
+      <c r="J321" s="15"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
@@ -5222,7 +5226,7 @@
       <c r="G322" s="8"/>
       <c r="H322" s="8"/>
       <c r="I322" s="8"/>
-      <c r="J322" s="9"/>
+      <c r="J322" s="15"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="7"/>
@@ -5234,7 +5238,7 @@
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
       <c r="I323" s="8"/>
-      <c r="J323" s="9"/>
+      <c r="J323" s="15"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
@@ -5246,7 +5250,7 @@
       <c r="G324" s="8"/>
       <c r="H324" s="8"/>
       <c r="I324" s="8"/>
-      <c r="J324" s="9"/>
+      <c r="J324" s="15"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
@@ -5258,7 +5262,7 @@
       <c r="G325" s="8"/>
       <c r="H325" s="8"/>
       <c r="I325" s="8"/>
-      <c r="J325" s="9"/>
+      <c r="J325" s="15"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
@@ -5270,7 +5274,7 @@
       <c r="G326" s="8"/>
       <c r="H326" s="8"/>
       <c r="I326" s="8"/>
-      <c r="J326" s="9"/>
+      <c r="J326" s="15"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
@@ -5282,7 +5286,7 @@
       <c r="G327" s="8"/>
       <c r="H327" s="8"/>
       <c r="I327" s="8"/>
-      <c r="J327" s="9"/>
+      <c r="J327" s="15"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
@@ -5294,7 +5298,7 @@
       <c r="G328" s="8"/>
       <c r="H328" s="8"/>
       <c r="I328" s="8"/>
-      <c r="J328" s="9"/>
+      <c r="J328" s="15"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
@@ -5306,7 +5310,7 @@
       <c r="G329" s="8"/>
       <c r="H329" s="8"/>
       <c r="I329" s="8"/>
-      <c r="J329" s="9"/>
+      <c r="J329" s="15"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
@@ -5318,7 +5322,7 @@
       <c r="G330" s="8"/>
       <c r="H330" s="8"/>
       <c r="I330" s="8"/>
-      <c r="J330" s="9"/>
+      <c r="J330" s="15"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
@@ -5330,7 +5334,7 @@
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
       <c r="I331" s="8"/>
-      <c r="J331" s="9"/>
+      <c r="J331" s="15"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
@@ -5342,7 +5346,7 @@
       <c r="G332" s="8"/>
       <c r="H332" s="8"/>
       <c r="I332" s="8"/>
-      <c r="J332" s="9"/>
+      <c r="J332" s="15"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
@@ -5354,7 +5358,7 @@
       <c r="G333" s="8"/>
       <c r="H333" s="8"/>
       <c r="I333" s="8"/>
-      <c r="J333" s="9"/>
+      <c r="J333" s="15"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
@@ -5366,7 +5370,7 @@
       <c r="G334" s="8"/>
       <c r="H334" s="8"/>
       <c r="I334" s="8"/>
-      <c r="J334" s="9"/>
+      <c r="J334" s="15"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
@@ -5378,7 +5382,7 @@
       <c r="G335" s="8"/>
       <c r="H335" s="8"/>
       <c r="I335" s="8"/>
-      <c r="J335" s="9"/>
+      <c r="J335" s="15"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
@@ -5390,7 +5394,7 @@
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
       <c r="I336" s="8"/>
-      <c r="J336" s="9"/>
+      <c r="J336" s="15"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
@@ -5402,7 +5406,7 @@
       <c r="G337" s="8"/>
       <c r="H337" s="8"/>
       <c r="I337" s="8"/>
-      <c r="J337" s="9"/>
+      <c r="J337" s="15"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
@@ -5414,7 +5418,7 @@
       <c r="G338" s="8"/>
       <c r="H338" s="8"/>
       <c r="I338" s="8"/>
-      <c r="J338" s="9"/>
+      <c r="J338" s="15"/>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
@@ -5426,7 +5430,7 @@
       <c r="G339" s="8"/>
       <c r="H339" s="8"/>
       <c r="I339" s="8"/>
-      <c r="J339" s="9"/>
+      <c r="J339" s="15"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
@@ -5438,7 +5442,7 @@
       <c r="G340" s="8"/>
       <c r="H340" s="8"/>
       <c r="I340" s="8"/>
-      <c r="J340" s="9"/>
+      <c r="J340" s="15"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="7"/>
@@ -5450,7 +5454,7 @@
       <c r="G341" s="8"/>
       <c r="H341" s="8"/>
       <c r="I341" s="8"/>
-      <c r="J341" s="9"/>
+      <c r="J341" s="15"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="7"/>
@@ -5462,7 +5466,7 @@
       <c r="G342" s="8"/>
       <c r="H342" s="8"/>
       <c r="I342" s="8"/>
-      <c r="J342" s="9"/>
+      <c r="J342" s="15"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
@@ -5474,7 +5478,7 @@
       <c r="G343" s="8"/>
       <c r="H343" s="8"/>
       <c r="I343" s="8"/>
-      <c r="J343" s="9"/>
+      <c r="J343" s="15"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
@@ -5486,7 +5490,7 @@
       <c r="G344" s="8"/>
       <c r="H344" s="8"/>
       <c r="I344" s="8"/>
-      <c r="J344" s="9"/>
+      <c r="J344" s="15"/>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="7"/>
@@ -5498,7 +5502,7 @@
       <c r="G345" s="8"/>
       <c r="H345" s="8"/>
       <c r="I345" s="8"/>
-      <c r="J345" s="9"/>
+      <c r="J345" s="15"/>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="7"/>
@@ -5510,7 +5514,7 @@
       <c r="G346" s="8"/>
       <c r="H346" s="8"/>
       <c r="I346" s="8"/>
-      <c r="J346" s="9"/>
+      <c r="J346" s="15"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="7"/>
@@ -5522,7 +5526,7 @@
       <c r="G347" s="8"/>
       <c r="H347" s="8"/>
       <c r="I347" s="8"/>
-      <c r="J347" s="9"/>
+      <c r="J347" s="15"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
@@ -5534,7 +5538,7 @@
       <c r="G348" s="8"/>
       <c r="H348" s="8"/>
       <c r="I348" s="8"/>
-      <c r="J348" s="9"/>
+      <c r="J348" s="15"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
@@ -5546,7 +5550,7 @@
       <c r="G349" s="8"/>
       <c r="H349" s="8"/>
       <c r="I349" s="8"/>
-      <c r="J349" s="9"/>
+      <c r="J349" s="15"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
@@ -5558,7 +5562,7 @@
       <c r="G350" s="8"/>
       <c r="H350" s="8"/>
       <c r="I350" s="8"/>
-      <c r="J350" s="9"/>
+      <c r="J350" s="15"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="7"/>
@@ -5570,7 +5574,7 @@
       <c r="G351" s="8"/>
       <c r="H351" s="8"/>
       <c r="I351" s="8"/>
-      <c r="J351" s="9"/>
+      <c r="J351" s="15"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
@@ -5582,7 +5586,7 @@
       <c r="G352" s="8"/>
       <c r="H352" s="8"/>
       <c r="I352" s="8"/>
-      <c r="J352" s="9"/>
+      <c r="J352" s="15"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="7"/>
@@ -5594,7 +5598,7 @@
       <c r="G353" s="8"/>
       <c r="H353" s="8"/>
       <c r="I353" s="8"/>
-      <c r="J353" s="9"/>
+      <c r="J353" s="15"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="7"/>
@@ -5606,7 +5610,7 @@
       <c r="G354" s="8"/>
       <c r="H354" s="8"/>
       <c r="I354" s="8"/>
-      <c r="J354" s="9"/>
+      <c r="J354" s="15"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="7"/>
@@ -5618,7 +5622,7 @@
       <c r="G355" s="8"/>
       <c r="H355" s="8"/>
       <c r="I355" s="8"/>
-      <c r="J355" s="9"/>
+      <c r="J355" s="15"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
@@ -5630,7 +5634,7 @@
       <c r="G356" s="8"/>
       <c r="H356" s="8"/>
       <c r="I356" s="8"/>
-      <c r="J356" s="9"/>
+      <c r="J356" s="15"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="7"/>
@@ -5642,7 +5646,7 @@
       <c r="G357" s="8"/>
       <c r="H357" s="8"/>
       <c r="I357" s="8"/>
-      <c r="J357" s="9"/>
+      <c r="J357" s="15"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
@@ -5654,7 +5658,7 @@
       <c r="G358" s="8"/>
       <c r="H358" s="8"/>
       <c r="I358" s="8"/>
-      <c r="J358" s="9"/>
+      <c r="J358" s="15"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
@@ -5666,7 +5670,7 @@
       <c r="G359" s="8"/>
       <c r="H359" s="8"/>
       <c r="I359" s="8"/>
-      <c r="J359" s="9"/>
+      <c r="J359" s="15"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
@@ -5678,7 +5682,7 @@
       <c r="G360" s="8"/>
       <c r="H360" s="8"/>
       <c r="I360" s="8"/>
-      <c r="J360" s="9"/>
+      <c r="J360" s="15"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="7"/>
@@ -5690,7 +5694,7 @@
       <c r="G361" s="8"/>
       <c r="H361" s="8"/>
       <c r="I361" s="8"/>
-      <c r="J361" s="9"/>
+      <c r="J361" s="15"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
@@ -5702,7 +5706,7 @@
       <c r="G362" s="8"/>
       <c r="H362" s="8"/>
       <c r="I362" s="8"/>
-      <c r="J362" s="9"/>
+      <c r="J362" s="15"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="7"/>
@@ -5714,7 +5718,7 @@
       <c r="G363" s="8"/>
       <c r="H363" s="8"/>
       <c r="I363" s="8"/>
-      <c r="J363" s="9"/>
+      <c r="J363" s="15"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
@@ -5726,7 +5730,7 @@
       <c r="G364" s="8"/>
       <c r="H364" s="8"/>
       <c r="I364" s="8"/>
-      <c r="J364" s="9"/>
+      <c r="J364" s="15"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="7"/>
@@ -5738,7 +5742,7 @@
       <c r="G365" s="8"/>
       <c r="H365" s="8"/>
       <c r="I365" s="8"/>
-      <c r="J365" s="9"/>
+      <c r="J365" s="15"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="7"/>
@@ -5750,7 +5754,7 @@
       <c r="G366" s="8"/>
       <c r="H366" s="8"/>
       <c r="I366" s="8"/>
-      <c r="J366" s="9"/>
+      <c r="J366" s="15"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="7"/>
@@ -5762,7 +5766,7 @@
       <c r="G367" s="8"/>
       <c r="H367" s="8"/>
       <c r="I367" s="8"/>
-      <c r="J367" s="9"/>
+      <c r="J367" s="15"/>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="7"/>
@@ -5774,7 +5778,7 @@
       <c r="G368" s="8"/>
       <c r="H368" s="8"/>
       <c r="I368" s="8"/>
-      <c r="J368" s="9"/>
+      <c r="J368" s="15"/>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="7"/>
@@ -5786,7 +5790,7 @@
       <c r="G369" s="8"/>
       <c r="H369" s="8"/>
       <c r="I369" s="8"/>
-      <c r="J369" s="9"/>
+      <c r="J369" s="15"/>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="7"/>
@@ -5798,7 +5802,7 @@
       <c r="G370" s="8"/>
       <c r="H370" s="8"/>
       <c r="I370" s="8"/>
-      <c r="J370" s="9"/>
+      <c r="J370" s="15"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="7"/>
@@ -5810,7 +5814,7 @@
       <c r="G371" s="8"/>
       <c r="H371" s="8"/>
       <c r="I371" s="8"/>
-      <c r="J371" s="9"/>
+      <c r="J371" s="15"/>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="7"/>
@@ -5822,7 +5826,7 @@
       <c r="G372" s="8"/>
       <c r="H372" s="8"/>
       <c r="I372" s="8"/>
-      <c r="J372" s="9"/>
+      <c r="J372" s="15"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="7"/>
@@ -5834,7 +5838,7 @@
       <c r="G373" s="8"/>
       <c r="H373" s="8"/>
       <c r="I373" s="8"/>
-      <c r="J373" s="9"/>
+      <c r="J373" s="15"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="7"/>
@@ -5846,7 +5850,7 @@
       <c r="G374" s="8"/>
       <c r="H374" s="8"/>
       <c r="I374" s="8"/>
-      <c r="J374" s="9"/>
+      <c r="J374" s="15"/>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="7"/>
@@ -5858,7 +5862,7 @@
       <c r="G375" s="8"/>
       <c r="H375" s="8"/>
       <c r="I375" s="8"/>
-      <c r="J375" s="9"/>
+      <c r="J375" s="15"/>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="7"/>
@@ -5870,7 +5874,7 @@
       <c r="G376" s="8"/>
       <c r="H376" s="8"/>
       <c r="I376" s="8"/>
-      <c r="J376" s="9"/>
+      <c r="J376" s="15"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="7"/>
@@ -5882,7 +5886,7 @@
       <c r="G377" s="8"/>
       <c r="H377" s="8"/>
       <c r="I377" s="8"/>
-      <c r="J377" s="9"/>
+      <c r="J377" s="15"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="7"/>
@@ -5894,7 +5898,7 @@
       <c r="G378" s="8"/>
       <c r="H378" s="8"/>
       <c r="I378" s="8"/>
-      <c r="J378" s="9"/>
+      <c r="J378" s="15"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="7"/>
@@ -5906,7 +5910,7 @@
       <c r="G379" s="8"/>
       <c r="H379" s="8"/>
       <c r="I379" s="8"/>
-      <c r="J379" s="9"/>
+      <c r="J379" s="15"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
@@ -5918,7 +5922,7 @@
       <c r="G380" s="8"/>
       <c r="H380" s="8"/>
       <c r="I380" s="8"/>
-      <c r="J380" s="9"/>
+      <c r="J380" s="15"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
@@ -5930,7 +5934,7 @@
       <c r="G381" s="8"/>
       <c r="H381" s="8"/>
       <c r="I381" s="8"/>
-      <c r="J381" s="9"/>
+      <c r="J381" s="15"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
@@ -5942,7 +5946,7 @@
       <c r="G382" s="8"/>
       <c r="H382" s="8"/>
       <c r="I382" s="8"/>
-      <c r="J382" s="9"/>
+      <c r="J382" s="15"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
@@ -5954,7 +5958,7 @@
       <c r="G383" s="8"/>
       <c r="H383" s="8"/>
       <c r="I383" s="8"/>
-      <c r="J383" s="9"/>
+      <c r="J383" s="15"/>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="7"/>
@@ -5966,7 +5970,7 @@
       <c r="G384" s="8"/>
       <c r="H384" s="8"/>
       <c r="I384" s="8"/>
-      <c r="J384" s="9"/>
+      <c r="J384" s="15"/>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="7"/>
@@ -5978,7 +5982,7 @@
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
       <c r="I385" s="8"/>
-      <c r="J385" s="9"/>
+      <c r="J385" s="15"/>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
@@ -5990,7 +5994,7 @@
       <c r="G386" s="8"/>
       <c r="H386" s="8"/>
       <c r="I386" s="8"/>
-      <c r="J386" s="9"/>
+      <c r="J386" s="15"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
@@ -6002,7 +6006,7 @@
       <c r="G387" s="8"/>
       <c r="H387" s="8"/>
       <c r="I387" s="8"/>
-      <c r="J387" s="9"/>
+      <c r="J387" s="15"/>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
@@ -6014,7 +6018,7 @@
       <c r="G388" s="8"/>
       <c r="H388" s="8"/>
       <c r="I388" s="8"/>
-      <c r="J388" s="9"/>
+      <c r="J388" s="15"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
@@ -6026,7 +6030,7 @@
       <c r="G389" s="8"/>
       <c r="H389" s="8"/>
       <c r="I389" s="8"/>
-      <c r="J389" s="9"/>
+      <c r="J389" s="15"/>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="7"/>
@@ -6038,7 +6042,7 @@
       <c r="G390" s="8"/>
       <c r="H390" s="8"/>
       <c r="I390" s="8"/>
-      <c r="J390" s="9"/>
+      <c r="J390" s="15"/>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="7"/>
@@ -6050,7 +6054,7 @@
       <c r="G391" s="8"/>
       <c r="H391" s="8"/>
       <c r="I391" s="8"/>
-      <c r="J391" s="9"/>
+      <c r="J391" s="15"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="7"/>
@@ -6062,7 +6066,7 @@
       <c r="G392" s="8"/>
       <c r="H392" s="8"/>
       <c r="I392" s="8"/>
-      <c r="J392" s="9"/>
+      <c r="J392" s="15"/>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="7"/>
@@ -6074,7 +6078,7 @@
       <c r="G393" s="8"/>
       <c r="H393" s="8"/>
       <c r="I393" s="8"/>
-      <c r="J393" s="9"/>
+      <c r="J393" s="15"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="7"/>
@@ -6086,7 +6090,7 @@
       <c r="G394" s="8"/>
       <c r="H394" s="8"/>
       <c r="I394" s="8"/>
-      <c r="J394" s="9"/>
+      <c r="J394" s="15"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="7"/>
@@ -6098,7 +6102,7 @@
       <c r="G395" s="8"/>
       <c r="H395" s="8"/>
       <c r="I395" s="8"/>
-      <c r="J395" s="9"/>
+      <c r="J395" s="15"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="7"/>
@@ -6110,7 +6114,7 @@
       <c r="G396" s="8"/>
       <c r="H396" s="8"/>
       <c r="I396" s="8"/>
-      <c r="J396" s="9"/>
+      <c r="J396" s="15"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="7"/>
@@ -6122,7 +6126,7 @@
       <c r="G397" s="8"/>
       <c r="H397" s="8"/>
       <c r="I397" s="8"/>
-      <c r="J397" s="9"/>
+      <c r="J397" s="15"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="7"/>
@@ -6134,7 +6138,7 @@
       <c r="G398" s="8"/>
       <c r="H398" s="8"/>
       <c r="I398" s="8"/>
-      <c r="J398" s="9"/>
+      <c r="J398" s="15"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="7"/>
@@ -6146,7 +6150,7 @@
       <c r="G399" s="8"/>
       <c r="H399" s="8"/>
       <c r="I399" s="8"/>
-      <c r="J399" s="9"/>
+      <c r="J399" s="15"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="7"/>
@@ -6158,7 +6162,7 @@
       <c r="G400" s="8"/>
       <c r="H400" s="8"/>
       <c r="I400" s="8"/>
-      <c r="J400" s="9"/>
+      <c r="J400" s="15"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="7"/>
@@ -6170,7 +6174,7 @@
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
       <c r="I401" s="8"/>
-      <c r="J401" s="9"/>
+      <c r="J401" s="15"/>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="7"/>
@@ -6182,7 +6186,7 @@
       <c r="G402" s="8"/>
       <c r="H402" s="8"/>
       <c r="I402" s="8"/>
-      <c r="J402" s="9"/>
+      <c r="J402" s="15"/>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="7"/>
@@ -6194,7 +6198,7 @@
       <c r="G403" s="8"/>
       <c r="H403" s="8"/>
       <c r="I403" s="8"/>
-      <c r="J403" s="9"/>
+      <c r="J403" s="15"/>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
@@ -6206,7 +6210,7 @@
       <c r="G404" s="8"/>
       <c r="H404" s="8"/>
       <c r="I404" s="8"/>
-      <c r="J404" s="9"/>
+      <c r="J404" s="15"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="7"/>
@@ -6218,7 +6222,7 @@
       <c r="G405" s="8"/>
       <c r="H405" s="8"/>
       <c r="I405" s="8"/>
-      <c r="J405" s="9"/>
+      <c r="J405" s="15"/>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
@@ -6230,7 +6234,7 @@
       <c r="G406" s="8"/>
       <c r="H406" s="8"/>
       <c r="I406" s="8"/>
-      <c r="J406" s="9"/>
+      <c r="J406" s="15"/>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="7"/>
@@ -6242,7 +6246,7 @@
       <c r="G407" s="8"/>
       <c r="H407" s="8"/>
       <c r="I407" s="8"/>
-      <c r="J407" s="9"/>
+      <c r="J407" s="15"/>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="7"/>
@@ -6254,7 +6258,7 @@
       <c r="G408" s="8"/>
       <c r="H408" s="8"/>
       <c r="I408" s="8"/>
-      <c r="J408" s="9"/>
+      <c r="J408" s="15"/>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="7"/>
@@ -6266,7 +6270,7 @@
       <c r="G409" s="8"/>
       <c r="H409" s="8"/>
       <c r="I409" s="8"/>
-      <c r="J409" s="9"/>
+      <c r="J409" s="15"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
@@ -6278,7 +6282,7 @@
       <c r="G410" s="8"/>
       <c r="H410" s="8"/>
       <c r="I410" s="8"/>
-      <c r="J410" s="9"/>
+      <c r="J410" s="15"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="7"/>
@@ -6290,7 +6294,7 @@
       <c r="G411" s="8"/>
       <c r="H411" s="8"/>
       <c r="I411" s="8"/>
-      <c r="J411" s="9"/>
+      <c r="J411" s="15"/>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="7"/>
@@ -6302,7 +6306,7 @@
       <c r="G412" s="8"/>
       <c r="H412" s="8"/>
       <c r="I412" s="8"/>
-      <c r="J412" s="9"/>
+      <c r="J412" s="15"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="7"/>
@@ -6314,7 +6318,7 @@
       <c r="G413" s="8"/>
       <c r="H413" s="8"/>
       <c r="I413" s="8"/>
-      <c r="J413" s="9"/>
+      <c r="J413" s="15"/>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="7"/>
@@ -6326,7 +6330,7 @@
       <c r="G414" s="8"/>
       <c r="H414" s="8"/>
       <c r="I414" s="8"/>
-      <c r="J414" s="9"/>
+      <c r="J414" s="15"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="7"/>
@@ -6338,7 +6342,7 @@
       <c r="G415" s="8"/>
       <c r="H415" s="8"/>
       <c r="I415" s="8"/>
-      <c r="J415" s="9"/>
+      <c r="J415" s="15"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="7"/>
@@ -6350,7 +6354,7 @@
       <c r="G416" s="8"/>
       <c r="H416" s="8"/>
       <c r="I416" s="8"/>
-      <c r="J416" s="9"/>
+      <c r="J416" s="15"/>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="7"/>
@@ -6362,7 +6366,7 @@
       <c r="G417" s="8"/>
       <c r="H417" s="8"/>
       <c r="I417" s="8"/>
-      <c r="J417" s="9"/>
+      <c r="J417" s="15"/>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="7"/>
@@ -6374,7 +6378,7 @@
       <c r="G418" s="8"/>
       <c r="H418" s="8"/>
       <c r="I418" s="8"/>
-      <c r="J418" s="9"/>
+      <c r="J418" s="15"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="7"/>
@@ -6386,7 +6390,7 @@
       <c r="G419" s="8"/>
       <c r="H419" s="8"/>
       <c r="I419" s="8"/>
-      <c r="J419" s="9"/>
+      <c r="J419" s="15"/>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="7"/>
@@ -6398,7 +6402,7 @@
       <c r="G420" s="8"/>
       <c r="H420" s="8"/>
       <c r="I420" s="8"/>
-      <c r="J420" s="9"/>
+      <c r="J420" s="15"/>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="7"/>
@@ -6410,7 +6414,7 @@
       <c r="G421" s="8"/>
       <c r="H421" s="8"/>
       <c r="I421" s="8"/>
-      <c r="J421" s="9"/>
+      <c r="J421" s="15"/>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="7"/>
@@ -6422,7 +6426,7 @@
       <c r="G422" s="8"/>
       <c r="H422" s="8"/>
       <c r="I422" s="8"/>
-      <c r="J422" s="9"/>
+      <c r="J422" s="15"/>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="7"/>
@@ -6434,7 +6438,7 @@
       <c r="G423" s="8"/>
       <c r="H423" s="8"/>
       <c r="I423" s="8"/>
-      <c r="J423" s="9"/>
+      <c r="J423" s="15"/>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="7"/>
@@ -6446,7 +6450,7 @@
       <c r="G424" s="8"/>
       <c r="H424" s="8"/>
       <c r="I424" s="8"/>
-      <c r="J424" s="9"/>
+      <c r="J424" s="15"/>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="7"/>
@@ -6458,7 +6462,7 @@
       <c r="G425" s="8"/>
       <c r="H425" s="8"/>
       <c r="I425" s="8"/>
-      <c r="J425" s="9"/>
+      <c r="J425" s="15"/>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
@@ -6470,7 +6474,7 @@
       <c r="G426" s="8"/>
       <c r="H426" s="8"/>
       <c r="I426" s="8"/>
-      <c r="J426" s="9"/>
+      <c r="J426" s="15"/>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="7"/>
@@ -6482,7 +6486,7 @@
       <c r="G427" s="8"/>
       <c r="H427" s="8"/>
       <c r="I427" s="8"/>
-      <c r="J427" s="9"/>
+      <c r="J427" s="15"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
@@ -6494,7 +6498,7 @@
       <c r="G428" s="8"/>
       <c r="H428" s="8"/>
       <c r="I428" s="8"/>
-      <c r="J428" s="9"/>
+      <c r="J428" s="15"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="7"/>
@@ -6506,7 +6510,7 @@
       <c r="G429" s="8"/>
       <c r="H429" s="8"/>
       <c r="I429" s="8"/>
-      <c r="J429" s="9"/>
+      <c r="J429" s="15"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="7"/>
@@ -6518,7 +6522,7 @@
       <c r="G430" s="8"/>
       <c r="H430" s="8"/>
       <c r="I430" s="8"/>
-      <c r="J430" s="9"/>
+      <c r="J430" s="15"/>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="7"/>
@@ -6530,7 +6534,7 @@
       <c r="G431" s="8"/>
       <c r="H431" s="8"/>
       <c r="I431" s="8"/>
-      <c r="J431" s="9"/>
+      <c r="J431" s="15"/>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="7"/>
@@ -6542,7 +6546,7 @@
       <c r="G432" s="8"/>
       <c r="H432" s="8"/>
       <c r="I432" s="8"/>
-      <c r="J432" s="9"/>
+      <c r="J432" s="15"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="7"/>
@@ -6554,7 +6558,7 @@
       <c r="G433" s="8"/>
       <c r="H433" s="8"/>
       <c r="I433" s="8"/>
-      <c r="J433" s="9"/>
+      <c r="J433" s="15"/>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="7"/>
@@ -6566,7 +6570,7 @@
       <c r="G434" s="8"/>
       <c r="H434" s="8"/>
       <c r="I434" s="8"/>
-      <c r="J434" s="9"/>
+      <c r="J434" s="15"/>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="7"/>
@@ -6578,7 +6582,7 @@
       <c r="G435" s="8"/>
       <c r="H435" s="8"/>
       <c r="I435" s="8"/>
-      <c r="J435" s="9"/>
+      <c r="J435" s="15"/>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="7"/>
@@ -6590,7 +6594,7 @@
       <c r="G436" s="8"/>
       <c r="H436" s="8"/>
       <c r="I436" s="8"/>
-      <c r="J436" s="9"/>
+      <c r="J436" s="15"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="7"/>
@@ -6602,7 +6606,7 @@
       <c r="G437" s="8"/>
       <c r="H437" s="8"/>
       <c r="I437" s="8"/>
-      <c r="J437" s="9"/>
+      <c r="J437" s="15"/>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="7"/>
@@ -6614,7 +6618,7 @@
       <c r="G438" s="8"/>
       <c r="H438" s="8"/>
       <c r="I438" s="8"/>
-      <c r="J438" s="9"/>
+      <c r="J438" s="15"/>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="7"/>
@@ -6626,7 +6630,7 @@
       <c r="G439" s="8"/>
       <c r="H439" s="8"/>
       <c r="I439" s="8"/>
-      <c r="J439" s="9"/>
+      <c r="J439" s="15"/>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="7"/>
@@ -6638,7 +6642,7 @@
       <c r="G440" s="8"/>
       <c r="H440" s="8"/>
       <c r="I440" s="8"/>
-      <c r="J440" s="9"/>
+      <c r="J440" s="15"/>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="7"/>
@@ -6650,7 +6654,7 @@
       <c r="G441" s="8"/>
       <c r="H441" s="8"/>
       <c r="I441" s="8"/>
-      <c r="J441" s="9"/>
+      <c r="J441" s="15"/>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="7"/>
@@ -6662,7 +6666,7 @@
       <c r="G442" s="8"/>
       <c r="H442" s="8"/>
       <c r="I442" s="8"/>
-      <c r="J442" s="9"/>
+      <c r="J442" s="15"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="7"/>
@@ -6674,7 +6678,7 @@
       <c r="G443" s="8"/>
       <c r="H443" s="8"/>
       <c r="I443" s="8"/>
-      <c r="J443" s="9"/>
+      <c r="J443" s="15"/>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="7"/>
@@ -6686,7 +6690,7 @@
       <c r="G444" s="8"/>
       <c r="H444" s="8"/>
       <c r="I444" s="8"/>
-      <c r="J444" s="9"/>
+      <c r="J444" s="15"/>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="7"/>
@@ -6698,7 +6702,7 @@
       <c r="G445" s="8"/>
       <c r="H445" s="8"/>
       <c r="I445" s="8"/>
-      <c r="J445" s="9"/>
+      <c r="J445" s="15"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="7"/>
@@ -6710,7 +6714,7 @@
       <c r="G446" s="8"/>
       <c r="H446" s="8"/>
       <c r="I446" s="8"/>
-      <c r="J446" s="9"/>
+      <c r="J446" s="15"/>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="7"/>
@@ -6722,7 +6726,7 @@
       <c r="G447" s="8"/>
       <c r="H447" s="8"/>
       <c r="I447" s="8"/>
-      <c r="J447" s="9"/>
+      <c r="J447" s="15"/>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="7"/>
@@ -6734,7 +6738,7 @@
       <c r="G448" s="8"/>
       <c r="H448" s="8"/>
       <c r="I448" s="8"/>
-      <c r="J448" s="9"/>
+      <c r="J448" s="15"/>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="7"/>
@@ -6746,7 +6750,7 @@
       <c r="G449" s="8"/>
       <c r="H449" s="8"/>
       <c r="I449" s="8"/>
-      <c r="J449" s="9"/>
+      <c r="J449" s="15"/>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="7"/>
@@ -6758,7 +6762,7 @@
       <c r="G450" s="8"/>
       <c r="H450" s="8"/>
       <c r="I450" s="8"/>
-      <c r="J450" s="9"/>
+      <c r="J450" s="15"/>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="7"/>
@@ -6770,7 +6774,7 @@
       <c r="G451" s="8"/>
       <c r="H451" s="8"/>
       <c r="I451" s="8"/>
-      <c r="J451" s="9"/>
+      <c r="J451" s="15"/>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="7"/>
@@ -6782,7 +6786,7 @@
       <c r="G452" s="8"/>
       <c r="H452" s="8"/>
       <c r="I452" s="8"/>
-      <c r="J452" s="9"/>
+      <c r="J452" s="15"/>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="7"/>
@@ -6794,7 +6798,7 @@
       <c r="G453" s="8"/>
       <c r="H453" s="8"/>
       <c r="I453" s="8"/>
-      <c r="J453" s="9"/>
+      <c r="J453" s="15"/>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="7"/>
@@ -6806,7 +6810,7 @@
       <c r="G454" s="8"/>
       <c r="H454" s="8"/>
       <c r="I454" s="8"/>
-      <c r="J454" s="9"/>
+      <c r="J454" s="15"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="7"/>
@@ -6818,7 +6822,7 @@
       <c r="G455" s="8"/>
       <c r="H455" s="8"/>
       <c r="I455" s="8"/>
-      <c r="J455" s="9"/>
+      <c r="J455" s="15"/>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="7"/>
@@ -6830,7 +6834,7 @@
       <c r="G456" s="8"/>
       <c r="H456" s="8"/>
       <c r="I456" s="8"/>
-      <c r="J456" s="9"/>
+      <c r="J456" s="15"/>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="7"/>
@@ -6842,7 +6846,7 @@
       <c r="G457" s="8"/>
       <c r="H457" s="8"/>
       <c r="I457" s="8"/>
-      <c r="J457" s="9"/>
+      <c r="J457" s="15"/>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="7"/>
@@ -6854,7 +6858,7 @@
       <c r="G458" s="8"/>
       <c r="H458" s="8"/>
       <c r="I458" s="8"/>
-      <c r="J458" s="9"/>
+      <c r="J458" s="15"/>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="7"/>
@@ -6866,7 +6870,7 @@
       <c r="G459" s="8"/>
       <c r="H459" s="8"/>
       <c r="I459" s="8"/>
-      <c r="J459" s="9"/>
+      <c r="J459" s="15"/>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="7"/>
@@ -6878,7 +6882,7 @@
       <c r="G460" s="8"/>
       <c r="H460" s="8"/>
       <c r="I460" s="8"/>
-      <c r="J460" s="9"/>
+      <c r="J460" s="15"/>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="7"/>
@@ -6890,7 +6894,7 @@
       <c r="G461" s="8"/>
       <c r="H461" s="8"/>
       <c r="I461" s="8"/>
-      <c r="J461" s="9"/>
+      <c r="J461" s="15"/>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="7"/>
@@ -6902,7 +6906,7 @@
       <c r="G462" s="8"/>
       <c r="H462" s="8"/>
       <c r="I462" s="8"/>
-      <c r="J462" s="9"/>
+      <c r="J462" s="15"/>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="7"/>
@@ -6914,7 +6918,7 @@
       <c r="G463" s="8"/>
       <c r="H463" s="8"/>
       <c r="I463" s="8"/>
-      <c r="J463" s="9"/>
+      <c r="J463" s="15"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="7"/>
@@ -6926,7 +6930,7 @@
       <c r="G464" s="8"/>
       <c r="H464" s="8"/>
       <c r="I464" s="8"/>
-      <c r="J464" s="9"/>
+      <c r="J464" s="15"/>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="7"/>
@@ -6938,7 +6942,7 @@
       <c r="G465" s="8"/>
       <c r="H465" s="8"/>
       <c r="I465" s="8"/>
-      <c r="J465" s="9"/>
+      <c r="J465" s="15"/>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="7"/>
@@ -6950,7 +6954,7 @@
       <c r="G466" s="8"/>
       <c r="H466" s="8"/>
       <c r="I466" s="8"/>
-      <c r="J466" s="9"/>
+      <c r="J466" s="15"/>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="7"/>
@@ -6962,7 +6966,7 @@
       <c r="G467" s="8"/>
       <c r="H467" s="8"/>
       <c r="I467" s="8"/>
-      <c r="J467" s="9"/>
+      <c r="J467" s="15"/>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="7"/>
@@ -6974,7 +6978,7 @@
       <c r="G468" s="8"/>
       <c r="H468" s="8"/>
       <c r="I468" s="8"/>
-      <c r="J468" s="9"/>
+      <c r="J468" s="15"/>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="7"/>
@@ -6986,7 +6990,7 @@
       <c r="G469" s="8"/>
       <c r="H469" s="8"/>
       <c r="I469" s="8"/>
-      <c r="J469" s="9"/>
+      <c r="J469" s="15"/>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="7"/>
@@ -6998,7 +7002,7 @@
       <c r="G470" s="8"/>
       <c r="H470" s="8"/>
       <c r="I470" s="8"/>
-      <c r="J470" s="9"/>
+      <c r="J470" s="15"/>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="7"/>
@@ -7010,7 +7014,7 @@
       <c r="G471" s="8"/>
       <c r="H471" s="8"/>
       <c r="I471" s="8"/>
-      <c r="J471" s="9"/>
+      <c r="J471" s="15"/>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="7"/>
@@ -7022,7 +7026,7 @@
       <c r="G472" s="8"/>
       <c r="H472" s="8"/>
       <c r="I472" s="8"/>
-      <c r="J472" s="9"/>
+      <c r="J472" s="15"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="7"/>
@@ -7034,7 +7038,7 @@
       <c r="G473" s="8"/>
       <c r="H473" s="8"/>
       <c r="I473" s="8"/>
-      <c r="J473" s="9"/>
+      <c r="J473" s="15"/>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="7"/>
@@ -7046,7 +7050,7 @@
       <c r="G474" s="8"/>
       <c r="H474" s="8"/>
       <c r="I474" s="8"/>
-      <c r="J474" s="9"/>
+      <c r="J474" s="15"/>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="7"/>
@@ -7058,7 +7062,7 @@
       <c r="G475" s="8"/>
       <c r="H475" s="8"/>
       <c r="I475" s="8"/>
-      <c r="J475" s="9"/>
+      <c r="J475" s="15"/>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="7"/>
@@ -7070,7 +7074,7 @@
       <c r="G476" s="8"/>
       <c r="H476" s="8"/>
       <c r="I476" s="8"/>
-      <c r="J476" s="9"/>
+      <c r="J476" s="15"/>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="7"/>
@@ -7082,7 +7086,7 @@
       <c r="G477" s="8"/>
       <c r="H477" s="8"/>
       <c r="I477" s="8"/>
-      <c r="J477" s="9"/>
+      <c r="J477" s="15"/>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="7"/>
@@ -7094,7 +7098,7 @@
       <c r="G478" s="8"/>
       <c r="H478" s="8"/>
       <c r="I478" s="8"/>
-      <c r="J478" s="9"/>
+      <c r="J478" s="15"/>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="7"/>
@@ -7106,7 +7110,7 @@
       <c r="G479" s="8"/>
       <c r="H479" s="8"/>
       <c r="I479" s="8"/>
-      <c r="J479" s="9"/>
+      <c r="J479" s="15"/>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="7"/>
@@ -7118,7 +7122,7 @@
       <c r="G480" s="8"/>
       <c r="H480" s="8"/>
       <c r="I480" s="8"/>
-      <c r="J480" s="9"/>
+      <c r="J480" s="15"/>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="7"/>
@@ -7130,7 +7134,7 @@
       <c r="G481" s="8"/>
       <c r="H481" s="8"/>
       <c r="I481" s="8"/>
-      <c r="J481" s="9"/>
+      <c r="J481" s="15"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="7"/>
@@ -7142,7 +7146,7 @@
       <c r="G482" s="8"/>
       <c r="H482" s="8"/>
       <c r="I482" s="8"/>
-      <c r="J482" s="9"/>
+      <c r="J482" s="15"/>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="7"/>
@@ -7154,7 +7158,7 @@
       <c r="G483" s="8"/>
       <c r="H483" s="8"/>
       <c r="I483" s="8"/>
-      <c r="J483" s="9"/>
+      <c r="J483" s="15"/>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="7"/>
@@ -7166,7 +7170,7 @@
       <c r="G484" s="8"/>
       <c r="H484" s="8"/>
       <c r="I484" s="8"/>
-      <c r="J484" s="9"/>
+      <c r="J484" s="15"/>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="7"/>
@@ -7178,7 +7182,7 @@
       <c r="G485" s="8"/>
       <c r="H485" s="8"/>
       <c r="I485" s="8"/>
-      <c r="J485" s="9"/>
+      <c r="J485" s="15"/>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="7"/>
@@ -7190,7 +7194,7 @@
       <c r="G486" s="8"/>
       <c r="H486" s="8"/>
       <c r="I486" s="8"/>
-      <c r="J486" s="9"/>
+      <c r="J486" s="15"/>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="7"/>
@@ -7202,7 +7206,7 @@
       <c r="G487" s="8"/>
       <c r="H487" s="8"/>
       <c r="I487" s="8"/>
-      <c r="J487" s="9"/>
+      <c r="J487" s="15"/>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="7"/>
@@ -7214,7 +7218,7 @@
       <c r="G488" s="8"/>
       <c r="H488" s="8"/>
       <c r="I488" s="8"/>
-      <c r="J488" s="9"/>
+      <c r="J488" s="15"/>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="7"/>
@@ -7226,7 +7230,7 @@
       <c r="G489" s="8"/>
       <c r="H489" s="8"/>
       <c r="I489" s="8"/>
-      <c r="J489" s="9"/>
+      <c r="J489" s="15"/>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="7"/>
@@ -7238,7 +7242,7 @@
       <c r="G490" s="8"/>
       <c r="H490" s="8"/>
       <c r="I490" s="8"/>
-      <c r="J490" s="9"/>
+      <c r="J490" s="15"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="7"/>
@@ -7250,7 +7254,7 @@
       <c r="G491" s="8"/>
       <c r="H491" s="8"/>
       <c r="I491" s="8"/>
-      <c r="J491" s="9"/>
+      <c r="J491" s="15"/>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="7"/>
@@ -7262,7 +7266,7 @@
       <c r="G492" s="8"/>
       <c r="H492" s="8"/>
       <c r="I492" s="8"/>
-      <c r="J492" s="9"/>
+      <c r="J492" s="15"/>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="7"/>
@@ -7274,7 +7278,7 @@
       <c r="G493" s="8"/>
       <c r="H493" s="8"/>
       <c r="I493" s="8"/>
-      <c r="J493" s="9"/>
+      <c r="J493" s="15"/>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="7"/>
@@ -7286,7 +7290,7 @@
       <c r="G494" s="8"/>
       <c r="H494" s="8"/>
       <c r="I494" s="8"/>
-      <c r="J494" s="9"/>
+      <c r="J494" s="15"/>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="7"/>
@@ -7298,7 +7302,7 @@
       <c r="G495" s="8"/>
       <c r="H495" s="8"/>
       <c r="I495" s="8"/>
-      <c r="J495" s="9"/>
+      <c r="J495" s="15"/>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="7"/>
@@ -7310,7 +7314,7 @@
       <c r="G496" s="8"/>
       <c r="H496" s="8"/>
       <c r="I496" s="8"/>
-      <c r="J496" s="9"/>
+      <c r="J496" s="15"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="7"/>
@@ -7322,7 +7326,7 @@
       <c r="G497" s="8"/>
       <c r="H497" s="8"/>
       <c r="I497" s="8"/>
-      <c r="J497" s="9"/>
+      <c r="J497" s="15"/>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="7"/>
@@ -7334,7 +7338,7 @@
       <c r="G498" s="8"/>
       <c r="H498" s="8"/>
       <c r="I498" s="8"/>
-      <c r="J498" s="9"/>
+      <c r="J498" s="15"/>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="7"/>
@@ -7346,7 +7350,7 @@
       <c r="G499" s="8"/>
       <c r="H499" s="8"/>
       <c r="I499" s="8"/>
-      <c r="J499" s="9"/>
+      <c r="J499" s="15"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="7"/>
@@ -7358,7 +7362,7 @@
       <c r="G500" s="8"/>
       <c r="H500" s="8"/>
       <c r="I500" s="8"/>
-      <c r="J500" s="9"/>
+      <c r="J500" s="15"/>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="7"/>
@@ -7370,7 +7374,7 @@
       <c r="G501" s="8"/>
       <c r="H501" s="8"/>
       <c r="I501" s="8"/>
-      <c r="J501" s="9"/>
+      <c r="J501" s="15"/>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="7"/>
@@ -7382,7 +7386,7 @@
       <c r="G502" s="8"/>
       <c r="H502" s="8"/>
       <c r="I502" s="8"/>
-      <c r="J502" s="9"/>
+      <c r="J502" s="15"/>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="7"/>
@@ -7394,7 +7398,7 @@
       <c r="G503" s="8"/>
       <c r="H503" s="8"/>
       <c r="I503" s="8"/>
-      <c r="J503" s="9"/>
+      <c r="J503" s="15"/>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="7"/>
@@ -7406,7 +7410,7 @@
       <c r="G504" s="8"/>
       <c r="H504" s="8"/>
       <c r="I504" s="8"/>
-      <c r="J504" s="9"/>
+      <c r="J504" s="15"/>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="7"/>
@@ -7418,7 +7422,7 @@
       <c r="G505" s="8"/>
       <c r="H505" s="8"/>
       <c r="I505" s="8"/>
-      <c r="J505" s="9"/>
+      <c r="J505" s="15"/>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="7"/>
@@ -7430,7 +7434,7 @@
       <c r="G506" s="8"/>
       <c r="H506" s="8"/>
       <c r="I506" s="8"/>
-      <c r="J506" s="9"/>
+      <c r="J506" s="15"/>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="7"/>
@@ -7442,7 +7446,7 @@
       <c r="G507" s="8"/>
       <c r="H507" s="8"/>
       <c r="I507" s="8"/>
-      <c r="J507" s="9"/>
+      <c r="J507" s="15"/>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="7"/>
@@ -7454,7 +7458,7 @@
       <c r="G508" s="8"/>
       <c r="H508" s="8"/>
       <c r="I508" s="8"/>
-      <c r="J508" s="9"/>
+      <c r="J508" s="15"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="7"/>
@@ -7466,7 +7470,7 @@
       <c r="G509" s="8"/>
       <c r="H509" s="8"/>
       <c r="I509" s="8"/>
-      <c r="J509" s="9"/>
+      <c r="J509" s="15"/>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="7"/>
@@ -7478,7 +7482,7 @@
       <c r="G510" s="8"/>
       <c r="H510" s="8"/>
       <c r="I510" s="8"/>
-      <c r="J510" s="9"/>
+      <c r="J510" s="15"/>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="7"/>
@@ -7490,7 +7494,7 @@
       <c r="G511" s="8"/>
       <c r="H511" s="8"/>
       <c r="I511" s="8"/>
-      <c r="J511" s="9"/>
+      <c r="J511" s="15"/>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="7"/>
@@ -7502,7 +7506,7 @@
       <c r="G512" s="8"/>
       <c r="H512" s="8"/>
       <c r="I512" s="8"/>
-      <c r="J512" s="9"/>
+      <c r="J512" s="15"/>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="7"/>
@@ -7514,7 +7518,7 @@
       <c r="G513" s="8"/>
       <c r="H513" s="8"/>
       <c r="I513" s="8"/>
-      <c r="J513" s="9"/>
+      <c r="J513" s="15"/>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="7"/>
@@ -7526,7 +7530,7 @@
       <c r="G514" s="8"/>
       <c r="H514" s="8"/>
       <c r="I514" s="8"/>
-      <c r="J514" s="9"/>
+      <c r="J514" s="15"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="7"/>
@@ -7538,7 +7542,7 @@
       <c r="G515" s="8"/>
       <c r="H515" s="8"/>
       <c r="I515" s="8"/>
-      <c r="J515" s="9"/>
+      <c r="J515" s="15"/>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="7"/>
@@ -7550,7 +7554,7 @@
       <c r="G516" s="8"/>
       <c r="H516" s="8"/>
       <c r="I516" s="8"/>
-      <c r="J516" s="9"/>
+      <c r="J516" s="15"/>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="7"/>
@@ -7562,7 +7566,7 @@
       <c r="G517" s="8"/>
       <c r="H517" s="8"/>
       <c r="I517" s="8"/>
-      <c r="J517" s="9"/>
+      <c r="J517" s="15"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="7"/>
@@ -7574,7 +7578,7 @@
       <c r="G518" s="8"/>
       <c r="H518" s="8"/>
       <c r="I518" s="8"/>
-      <c r="J518" s="9"/>
+      <c r="J518" s="15"/>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="7"/>
@@ -7586,7 +7590,7 @@
       <c r="G519" s="8"/>
       <c r="H519" s="8"/>
       <c r="I519" s="8"/>
-      <c r="J519" s="9"/>
+      <c r="J519" s="15"/>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="7"/>
@@ -7598,7 +7602,7 @@
       <c r="G520" s="8"/>
       <c r="H520" s="8"/>
       <c r="I520" s="8"/>
-      <c r="J520" s="9"/>
+      <c r="J520" s="15"/>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="7"/>
@@ -7610,7 +7614,7 @@
       <c r="G521" s="8"/>
       <c r="H521" s="8"/>
       <c r="I521" s="8"/>
-      <c r="J521" s="9"/>
+      <c r="J521" s="15"/>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="7"/>
@@ -7622,7 +7626,7 @@
       <c r="G522" s="8"/>
       <c r="H522" s="8"/>
       <c r="I522" s="8"/>
-      <c r="J522" s="9"/>
+      <c r="J522" s="15"/>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="7"/>
@@ -7634,7 +7638,7 @@
       <c r="G523" s="8"/>
       <c r="H523" s="8"/>
       <c r="I523" s="8"/>
-      <c r="J523" s="9"/>
+      <c r="J523" s="15"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="7"/>
@@ -7646,7 +7650,7 @@
       <c r="G524" s="8"/>
       <c r="H524" s="8"/>
       <c r="I524" s="8"/>
-      <c r="J524" s="9"/>
+      <c r="J524" s="15"/>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="7"/>
@@ -7658,7 +7662,7 @@
       <c r="G525" s="8"/>
       <c r="H525" s="8"/>
       <c r="I525" s="8"/>
-      <c r="J525" s="9"/>
+      <c r="J525" s="15"/>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="7"/>
@@ -7670,7 +7674,7 @@
       <c r="G526" s="8"/>
       <c r="H526" s="8"/>
       <c r="I526" s="8"/>
-      <c r="J526" s="9"/>
+      <c r="J526" s="15"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="7"/>
@@ -7682,7 +7686,7 @@
       <c r="G527" s="8"/>
       <c r="H527" s="8"/>
       <c r="I527" s="8"/>
-      <c r="J527" s="9"/>
+      <c r="J527" s="15"/>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="7"/>
@@ -7694,7 +7698,7 @@
       <c r="G528" s="8"/>
       <c r="H528" s="8"/>
       <c r="I528" s="8"/>
-      <c r="J528" s="9"/>
+      <c r="J528" s="15"/>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="7"/>
@@ -7706,7 +7710,7 @@
       <c r="G529" s="8"/>
       <c r="H529" s="8"/>
       <c r="I529" s="8"/>
-      <c r="J529" s="9"/>
+      <c r="J529" s="15"/>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="7"/>
@@ -7718,7 +7722,7 @@
       <c r="G530" s="8"/>
       <c r="H530" s="8"/>
       <c r="I530" s="8"/>
-      <c r="J530" s="9"/>
+      <c r="J530" s="15"/>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="7"/>
@@ -7730,7 +7734,7 @@
       <c r="G531" s="8"/>
       <c r="H531" s="8"/>
       <c r="I531" s="8"/>
-      <c r="J531" s="9"/>
+      <c r="J531" s="15"/>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="7"/>
@@ -7742,7 +7746,7 @@
       <c r="G532" s="8"/>
       <c r="H532" s="8"/>
       <c r="I532" s="8"/>
-      <c r="J532" s="9"/>
+      <c r="J532" s="15"/>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="7"/>
@@ -7754,7 +7758,7 @@
       <c r="G533" s="8"/>
       <c r="H533" s="8"/>
       <c r="I533" s="8"/>
-      <c r="J533" s="9"/>
+      <c r="J533" s="15"/>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="7"/>
@@ -7766,7 +7770,7 @@
       <c r="G534" s="8"/>
       <c r="H534" s="8"/>
       <c r="I534" s="8"/>
-      <c r="J534" s="9"/>
+      <c r="J534" s="15"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="7"/>
@@ -7778,7 +7782,7 @@
       <c r="G535" s="8"/>
       <c r="H535" s="8"/>
       <c r="I535" s="8"/>
-      <c r="J535" s="9"/>
+      <c r="J535" s="15"/>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="7"/>
@@ -7790,7 +7794,7 @@
       <c r="G536" s="8"/>
       <c r="H536" s="8"/>
       <c r="I536" s="8"/>
-      <c r="J536" s="9"/>
+      <c r="J536" s="15"/>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="7"/>
@@ -7802,7 +7806,7 @@
       <c r="G537" s="8"/>
       <c r="H537" s="8"/>
       <c r="I537" s="8"/>
-      <c r="J537" s="9"/>
+      <c r="J537" s="15"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="7"/>
@@ -7814,7 +7818,7 @@
       <c r="G538" s="8"/>
       <c r="H538" s="8"/>
       <c r="I538" s="8"/>
-      <c r="J538" s="9"/>
+      <c r="J538" s="15"/>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="7"/>
@@ -7826,7 +7830,7 @@
       <c r="G539" s="8"/>
       <c r="H539" s="8"/>
       <c r="I539" s="8"/>
-      <c r="J539" s="9"/>
+      <c r="J539" s="15"/>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="7"/>
@@ -7838,7 +7842,7 @@
       <c r="G540" s="8"/>
       <c r="H540" s="8"/>
       <c r="I540" s="8"/>
-      <c r="J540" s="9"/>
+      <c r="J540" s="15"/>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="7"/>
@@ -7850,7 +7854,7 @@
       <c r="G541" s="8"/>
       <c r="H541" s="8"/>
       <c r="I541" s="8"/>
-      <c r="J541" s="9"/>
+      <c r="J541" s="15"/>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="7"/>
@@ -7862,7 +7866,7 @@
       <c r="G542" s="8"/>
       <c r="H542" s="8"/>
       <c r="I542" s="8"/>
-      <c r="J542" s="9"/>
+      <c r="J542" s="15"/>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="7"/>
@@ -7874,7 +7878,7 @@
       <c r="G543" s="8"/>
       <c r="H543" s="8"/>
       <c r="I543" s="8"/>
-      <c r="J543" s="9"/>
+      <c r="J543" s="15"/>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="7"/>
@@ -7886,7 +7890,7 @@
       <c r="G544" s="8"/>
       <c r="H544" s="8"/>
       <c r="I544" s="8"/>
-      <c r="J544" s="9"/>
+      <c r="J544" s="15"/>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="7"/>
@@ -7898,7 +7902,7 @@
       <c r="G545" s="8"/>
       <c r="H545" s="8"/>
       <c r="I545" s="8"/>
-      <c r="J545" s="9"/>
+      <c r="J545" s="15"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="7"/>
@@ -7910,7 +7914,7 @@
       <c r="G546" s="8"/>
       <c r="H546" s="8"/>
       <c r="I546" s="8"/>
-      <c r="J546" s="9"/>
+      <c r="J546" s="15"/>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="7"/>
@@ -7922,7 +7926,7 @@
       <c r="G547" s="8"/>
       <c r="H547" s="8"/>
       <c r="I547" s="8"/>
-      <c r="J547" s="9"/>
+      <c r="J547" s="15"/>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="7"/>
@@ -7934,7 +7938,7 @@
       <c r="G548" s="8"/>
       <c r="H548" s="8"/>
       <c r="I548" s="8"/>
-      <c r="J548" s="9"/>
+      <c r="J548" s="15"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="7"/>
@@ -7946,7 +7950,7 @@
       <c r="G549" s="8"/>
       <c r="H549" s="8"/>
       <c r="I549" s="8"/>
-      <c r="J549" s="9"/>
+      <c r="J549" s="15"/>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="7"/>
@@ -7958,7 +7962,7 @@
       <c r="G550" s="8"/>
       <c r="H550" s="8"/>
       <c r="I550" s="8"/>
-      <c r="J550" s="9"/>
+      <c r="J550" s="15"/>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="7"/>
@@ -7970,7 +7974,7 @@
       <c r="G551" s="8"/>
       <c r="H551" s="8"/>
       <c r="I551" s="8"/>
-      <c r="J551" s="9"/>
+      <c r="J551" s="15"/>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="7"/>
@@ -7982,7 +7986,7 @@
       <c r="G552" s="8"/>
       <c r="H552" s="8"/>
       <c r="I552" s="8"/>
-      <c r="J552" s="9"/>
+      <c r="J552" s="15"/>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="7"/>
@@ -7994,7 +7998,7 @@
       <c r="G553" s="8"/>
       <c r="H553" s="8"/>
       <c r="I553" s="8"/>
-      <c r="J553" s="9"/>
+      <c r="J553" s="15"/>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="7"/>
@@ -8006,7 +8010,7 @@
       <c r="G554" s="8"/>
       <c r="H554" s="8"/>
       <c r="I554" s="8"/>
-      <c r="J554" s="9"/>
+      <c r="J554" s="15"/>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="7"/>
@@ -8018,7 +8022,7 @@
       <c r="G555" s="8"/>
       <c r="H555" s="8"/>
       <c r="I555" s="8"/>
-      <c r="J555" s="9"/>
+      <c r="J555" s="15"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="7"/>
@@ -8030,7 +8034,7 @@
       <c r="G556" s="8"/>
       <c r="H556" s="8"/>
       <c r="I556" s="8"/>
-      <c r="J556" s="9"/>
+      <c r="J556" s="15"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="7"/>
@@ -8042,7 +8046,7 @@
       <c r="G557" s="8"/>
       <c r="H557" s="8"/>
       <c r="I557" s="8"/>
-      <c r="J557" s="9"/>
+      <c r="J557" s="15"/>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="7"/>
@@ -8054,7 +8058,7 @@
       <c r="G558" s="8"/>
       <c r="H558" s="8"/>
       <c r="I558" s="8"/>
-      <c r="J558" s="9"/>
+      <c r="J558" s="15"/>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="7"/>
@@ -8066,7 +8070,7 @@
       <c r="G559" s="8"/>
       <c r="H559" s="8"/>
       <c r="I559" s="8"/>
-      <c r="J559" s="9"/>
+      <c r="J559" s="15"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="7"/>
@@ -8078,7 +8082,7 @@
       <c r="G560" s="8"/>
       <c r="H560" s="8"/>
       <c r="I560" s="8"/>
-      <c r="J560" s="9"/>
+      <c r="J560" s="15"/>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="7"/>
@@ -8090,7 +8094,7 @@
       <c r="G561" s="8"/>
       <c r="H561" s="8"/>
       <c r="I561" s="8"/>
-      <c r="J561" s="9"/>
+      <c r="J561" s="15"/>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="7"/>
@@ -8102,7 +8106,7 @@
       <c r="G562" s="8"/>
       <c r="H562" s="8"/>
       <c r="I562" s="8"/>
-      <c r="J562" s="9"/>
+      <c r="J562" s="15"/>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="7"/>
@@ -8114,7 +8118,7 @@
       <c r="G563" s="8"/>
       <c r="H563" s="8"/>
       <c r="I563" s="8"/>
-      <c r="J563" s="9"/>
+      <c r="J563" s="15"/>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="7"/>
@@ -8126,7 +8130,7 @@
       <c r="G564" s="8"/>
       <c r="H564" s="8"/>
       <c r="I564" s="8"/>
-      <c r="J564" s="9"/>
+      <c r="J564" s="15"/>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="7"/>
@@ -8138,7 +8142,7 @@
       <c r="G565" s="8"/>
       <c r="H565" s="8"/>
       <c r="I565" s="8"/>
-      <c r="J565" s="9"/>
+      <c r="J565" s="15"/>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="7"/>
@@ -8150,7 +8154,7 @@
       <c r="G566" s="8"/>
       <c r="H566" s="8"/>
       <c r="I566" s="8"/>
-      <c r="J566" s="9"/>
+      <c r="J566" s="15"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="7"/>
@@ -8162,7 +8166,7 @@
       <c r="G567" s="8"/>
       <c r="H567" s="8"/>
       <c r="I567" s="8"/>
-      <c r="J567" s="9"/>
+      <c r="J567" s="15"/>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="7"/>
@@ -8174,7 +8178,7 @@
       <c r="G568" s="8"/>
       <c r="H568" s="8"/>
       <c r="I568" s="8"/>
-      <c r="J568" s="9"/>
+      <c r="J568" s="15"/>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="7"/>
@@ -8186,7 +8190,7 @@
       <c r="G569" s="8"/>
       <c r="H569" s="8"/>
       <c r="I569" s="8"/>
-      <c r="J569" s="9"/>
+      <c r="J569" s="15"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="7"/>
@@ -8198,7 +8202,7 @@
       <c r="G570" s="8"/>
       <c r="H570" s="8"/>
       <c r="I570" s="8"/>
-      <c r="J570" s="9"/>
+      <c r="J570" s="15"/>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="7"/>
@@ -8210,7 +8214,7 @@
       <c r="G571" s="8"/>
       <c r="H571" s="8"/>
       <c r="I571" s="8"/>
-      <c r="J571" s="9"/>
+      <c r="J571" s="15"/>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="7"/>
@@ -8222,7 +8226,7 @@
       <c r="G572" s="8"/>
       <c r="H572" s="8"/>
       <c r="I572" s="8"/>
-      <c r="J572" s="9"/>
+      <c r="J572" s="15"/>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="7"/>
@@ -8234,7 +8238,7 @@
       <c r="G573" s="8"/>
       <c r="H573" s="8"/>
       <c r="I573" s="8"/>
-      <c r="J573" s="9"/>
+      <c r="J573" s="15"/>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="7"/>
@@ -8246,7 +8250,7 @@
       <c r="G574" s="8"/>
       <c r="H574" s="8"/>
       <c r="I574" s="8"/>
-      <c r="J574" s="9"/>
+      <c r="J574" s="15"/>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="7"/>
@@ -8258,7 +8262,7 @@
       <c r="G575" s="8"/>
       <c r="H575" s="8"/>
       <c r="I575" s="8"/>
-      <c r="J575" s="9"/>
+      <c r="J575" s="15"/>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="7"/>
@@ -8270,7 +8274,7 @@
       <c r="G576" s="8"/>
       <c r="H576" s="8"/>
       <c r="I576" s="8"/>
-      <c r="J576" s="9"/>
+      <c r="J576" s="15"/>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="7"/>
@@ -8282,7 +8286,7 @@
       <c r="G577" s="8"/>
       <c r="H577" s="8"/>
       <c r="I577" s="8"/>
-      <c r="J577" s="9"/>
+      <c r="J577" s="15"/>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="7"/>
@@ -8294,7 +8298,7 @@
       <c r="G578" s="8"/>
       <c r="H578" s="8"/>
       <c r="I578" s="8"/>
-      <c r="J578" s="9"/>
+      <c r="J578" s="15"/>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="7"/>
@@ -8306,7 +8310,7 @@
       <c r="G579" s="8"/>
       <c r="H579" s="8"/>
       <c r="I579" s="8"/>
-      <c r="J579" s="9"/>
+      <c r="J579" s="15"/>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="7"/>
@@ -8318,7 +8322,7 @@
       <c r="G580" s="8"/>
       <c r="H580" s="8"/>
       <c r="I580" s="8"/>
-      <c r="J580" s="9"/>
+      <c r="J580" s="15"/>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="7"/>
@@ -8330,7 +8334,7 @@
       <c r="G581" s="8"/>
       <c r="H581" s="8"/>
       <c r="I581" s="8"/>
-      <c r="J581" s="9"/>
+      <c r="J581" s="15"/>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="7"/>
@@ -8342,7 +8346,7 @@
       <c r="G582" s="8"/>
       <c r="H582" s="8"/>
       <c r="I582" s="8"/>
-      <c r="J582" s="9"/>
+      <c r="J582" s="15"/>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="7"/>
@@ -8354,7 +8358,7 @@
       <c r="G583" s="8"/>
       <c r="H583" s="8"/>
       <c r="I583" s="8"/>
-      <c r="J583" s="9"/>
+      <c r="J583" s="15"/>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="7"/>
@@ -8366,7 +8370,7 @@
       <c r="G584" s="8"/>
       <c r="H584" s="8"/>
       <c r="I584" s="8"/>
-      <c r="J584" s="9"/>
+      <c r="J584" s="15"/>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="7"/>
@@ -8378,7 +8382,7 @@
       <c r="G585" s="8"/>
       <c r="H585" s="8"/>
       <c r="I585" s="8"/>
-      <c r="J585" s="9"/>
+      <c r="J585" s="15"/>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="7"/>
@@ -8390,7 +8394,7 @@
       <c r="G586" s="8"/>
       <c r="H586" s="8"/>
       <c r="I586" s="8"/>
-      <c r="J586" s="9"/>
+      <c r="J586" s="15"/>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="7"/>
@@ -8402,7 +8406,7 @@
       <c r="G587" s="8"/>
       <c r="H587" s="8"/>
       <c r="I587" s="8"/>
-      <c r="J587" s="9"/>
+      <c r="J587" s="15"/>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="7"/>
@@ -8414,7 +8418,7 @@
       <c r="G588" s="8"/>
       <c r="H588" s="8"/>
       <c r="I588" s="8"/>
-      <c r="J588" s="9"/>
+      <c r="J588" s="15"/>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="7"/>
@@ -8426,7 +8430,7 @@
       <c r="G589" s="8"/>
       <c r="H589" s="8"/>
       <c r="I589" s="8"/>
-      <c r="J589" s="9"/>
+      <c r="J589" s="15"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="7"/>
@@ -8438,7 +8442,7 @@
       <c r="G590" s="8"/>
       <c r="H590" s="8"/>
       <c r="I590" s="8"/>
-      <c r="J590" s="9"/>
+      <c r="J590" s="15"/>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="7"/>
@@ -8450,7 +8454,7 @@
       <c r="G591" s="8"/>
       <c r="H591" s="8"/>
       <c r="I591" s="8"/>
-      <c r="J591" s="9"/>
+      <c r="J591" s="15"/>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="7"/>
@@ -8462,7 +8466,7 @@
       <c r="G592" s="8"/>
       <c r="H592" s="8"/>
       <c r="I592" s="8"/>
-      <c r="J592" s="9"/>
+      <c r="J592" s="15"/>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="7"/>
@@ -8474,7 +8478,7 @@
       <c r="G593" s="8"/>
       <c r="H593" s="8"/>
       <c r="I593" s="8"/>
-      <c r="J593" s="9"/>
+      <c r="J593" s="15"/>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="7"/>
@@ -8486,7 +8490,7 @@
       <c r="G594" s="8"/>
       <c r="H594" s="8"/>
       <c r="I594" s="8"/>
-      <c r="J594" s="9"/>
+      <c r="J594" s="15"/>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="7"/>
@@ -8498,7 +8502,7 @@
       <c r="G595" s="8"/>
       <c r="H595" s="8"/>
       <c r="I595" s="8"/>
-      <c r="J595" s="9"/>
+      <c r="J595" s="15"/>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="7"/>
@@ -8510,7 +8514,7 @@
       <c r="G596" s="8"/>
       <c r="H596" s="8"/>
       <c r="I596" s="8"/>
-      <c r="J596" s="9"/>
+      <c r="J596" s="15"/>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="7"/>
@@ -8522,7 +8526,7 @@
       <c r="G597" s="8"/>
       <c r="H597" s="8"/>
       <c r="I597" s="8"/>
-      <c r="J597" s="9"/>
+      <c r="J597" s="15"/>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="7"/>
@@ -8534,7 +8538,7 @@
       <c r="G598" s="8"/>
       <c r="H598" s="8"/>
       <c r="I598" s="8"/>
-      <c r="J598" s="9"/>
+      <c r="J598" s="15"/>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="7"/>
@@ -8546,7 +8550,7 @@
       <c r="G599" s="8"/>
       <c r="H599" s="8"/>
       <c r="I599" s="8"/>
-      <c r="J599" s="9"/>
+      <c r="J599" s="15"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="7"/>
@@ -8558,7 +8562,7 @@
       <c r="G600" s="8"/>
       <c r="H600" s="8"/>
       <c r="I600" s="8"/>
-      <c r="J600" s="9"/>
+      <c r="J600" s="15"/>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="7"/>
@@ -8570,7 +8574,7 @@
       <c r="G601" s="8"/>
       <c r="H601" s="8"/>
       <c r="I601" s="8"/>
-      <c r="J601" s="9"/>
+      <c r="J601" s="15"/>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="7"/>
@@ -8582,7 +8586,7 @@
       <c r="G602" s="8"/>
       <c r="H602" s="8"/>
       <c r="I602" s="8"/>
-      <c r="J602" s="9"/>
+      <c r="J602" s="15"/>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="7"/>
@@ -8594,7 +8598,7 @@
       <c r="G603" s="8"/>
       <c r="H603" s="8"/>
       <c r="I603" s="8"/>
-      <c r="J603" s="9"/>
+      <c r="J603" s="15"/>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="7"/>
@@ -8606,7 +8610,7 @@
       <c r="G604" s="8"/>
       <c r="H604" s="8"/>
       <c r="I604" s="8"/>
-      <c r="J604" s="9"/>
+      <c r="J604" s="15"/>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="7"/>
@@ -8618,7 +8622,7 @@
       <c r="G605" s="8"/>
       <c r="H605" s="8"/>
       <c r="I605" s="8"/>
-      <c r="J605" s="9"/>
+      <c r="J605" s="15"/>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="7"/>
@@ -8630,7 +8634,7 @@
       <c r="G606" s="8"/>
       <c r="H606" s="8"/>
       <c r="I606" s="8"/>
-      <c r="J606" s="9"/>
+      <c r="J606" s="15"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="7"/>
@@ -8642,7 +8646,7 @@
       <c r="G607" s="8"/>
       <c r="H607" s="8"/>
       <c r="I607" s="8"/>
-      <c r="J607" s="9"/>
+      <c r="J607" s="15"/>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="7"/>
@@ -8654,7 +8658,7 @@
       <c r="G608" s="8"/>
       <c r="H608" s="8"/>
       <c r="I608" s="8"/>
-      <c r="J608" s="9"/>
+      <c r="J608" s="15"/>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" s="7"/>
@@ -8666,7 +8670,7 @@
       <c r="G609" s="8"/>
       <c r="H609" s="8"/>
       <c r="I609" s="8"/>
-      <c r="J609" s="9"/>
+      <c r="J609" s="15"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="7"/>
@@ -8678,7 +8682,7 @@
       <c r="G610" s="8"/>
       <c r="H610" s="8"/>
       <c r="I610" s="8"/>
-      <c r="J610" s="9"/>
+      <c r="J610" s="15"/>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="7"/>
@@ -8690,7 +8694,7 @@
       <c r="G611" s="8"/>
       <c r="H611" s="8"/>
       <c r="I611" s="8"/>
-      <c r="J611" s="9"/>
+      <c r="J611" s="15"/>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" s="7"/>
@@ -8702,7 +8706,7 @@
       <c r="G612" s="8"/>
       <c r="H612" s="8"/>
       <c r="I612" s="8"/>
-      <c r="J612" s="9"/>
+      <c r="J612" s="15"/>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" s="7"/>
@@ -8714,7 +8718,7 @@
       <c r="G613" s="8"/>
       <c r="H613" s="8"/>
       <c r="I613" s="8"/>
-      <c r="J613" s="9"/>
+      <c r="J613" s="15"/>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" s="7"/>
@@ -8726,7 +8730,7 @@
       <c r="G614" s="8"/>
       <c r="H614" s="8"/>
       <c r="I614" s="8"/>
-      <c r="J614" s="9"/>
+      <c r="J614" s="15"/>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" s="7"/>
@@ -8738,7 +8742,7 @@
       <c r="G615" s="8"/>
       <c r="H615" s="8"/>
       <c r="I615" s="8"/>
-      <c r="J615" s="9"/>
+      <c r="J615" s="15"/>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="7"/>
@@ -8750,7 +8754,7 @@
       <c r="G616" s="8"/>
       <c r="H616" s="8"/>
       <c r="I616" s="8"/>
-      <c r="J616" s="9"/>
+      <c r="J616" s="15"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="7"/>
@@ -8762,7 +8766,7 @@
       <c r="G617" s="8"/>
       <c r="H617" s="8"/>
       <c r="I617" s="8"/>
-      <c r="J617" s="9"/>
+      <c r="J617" s="15"/>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" s="7"/>
@@ -8774,7 +8778,7 @@
       <c r="G618" s="8"/>
       <c r="H618" s="8"/>
       <c r="I618" s="8"/>
-      <c r="J618" s="9"/>
+      <c r="J618" s="15"/>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" s="7"/>
@@ -8786,7 +8790,7 @@
       <c r="G619" s="8"/>
       <c r="H619" s="8"/>
       <c r="I619" s="8"/>
-      <c r="J619" s="9"/>
+      <c r="J619" s="15"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="7"/>
@@ -8798,7 +8802,7 @@
       <c r="G620" s="8"/>
       <c r="H620" s="8"/>
       <c r="I620" s="8"/>
-      <c r="J620" s="9"/>
+      <c r="J620" s="15"/>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="7"/>
@@ -8810,7 +8814,7 @@
       <c r="G621" s="8"/>
       <c r="H621" s="8"/>
       <c r="I621" s="8"/>
-      <c r="J621" s="9"/>
+      <c r="J621" s="15"/>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" s="7"/>
@@ -8822,7 +8826,7 @@
       <c r="G622" s="8"/>
       <c r="H622" s="8"/>
       <c r="I622" s="8"/>
-      <c r="J622" s="9"/>
+      <c r="J622" s="15"/>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" s="7"/>
@@ -8834,7 +8838,7 @@
       <c r="G623" s="8"/>
       <c r="H623" s="8"/>
       <c r="I623" s="8"/>
-      <c r="J623" s="9"/>
+      <c r="J623" s="15"/>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" s="7"/>
@@ -8846,7 +8850,7 @@
       <c r="G624" s="8"/>
       <c r="H624" s="8"/>
       <c r="I624" s="8"/>
-      <c r="J624" s="9"/>
+      <c r="J624" s="15"/>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" s="7"/>
@@ -8858,7 +8862,7 @@
       <c r="G625" s="8"/>
       <c r="H625" s="8"/>
       <c r="I625" s="8"/>
-      <c r="J625" s="9"/>
+      <c r="J625" s="15"/>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="7"/>
@@ -8870,7 +8874,7 @@
       <c r="G626" s="8"/>
       <c r="H626" s="8"/>
       <c r="I626" s="8"/>
-      <c r="J626" s="9"/>
+      <c r="J626" s="15"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="7"/>
@@ -8882,7 +8886,7 @@
       <c r="G627" s="8"/>
       <c r="H627" s="8"/>
       <c r="I627" s="8"/>
-      <c r="J627" s="9"/>
+      <c r="J627" s="15"/>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" s="7"/>
@@ -8894,7 +8898,7 @@
       <c r="G628" s="8"/>
       <c r="H628" s="8"/>
       <c r="I628" s="8"/>
-      <c r="J628" s="9"/>
+      <c r="J628" s="15"/>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" s="7"/>
@@ -8906,7 +8910,7 @@
       <c r="G629" s="8"/>
       <c r="H629" s="8"/>
       <c r="I629" s="8"/>
-      <c r="J629" s="9"/>
+      <c r="J629" s="15"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="7"/>
@@ -8918,7 +8922,7 @@
       <c r="G630" s="8"/>
       <c r="H630" s="8"/>
       <c r="I630" s="8"/>
-      <c r="J630" s="9"/>
+      <c r="J630" s="15"/>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="7"/>
@@ -8930,7 +8934,7 @@
       <c r="G631" s="8"/>
       <c r="H631" s="8"/>
       <c r="I631" s="8"/>
-      <c r="J631" s="9"/>
+      <c r="J631" s="15"/>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" s="7"/>
@@ -8942,7 +8946,7 @@
       <c r="G632" s="8"/>
       <c r="H632" s="8"/>
       <c r="I632" s="8"/>
-      <c r="J632" s="9"/>
+      <c r="J632" s="15"/>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" s="7"/>
@@ -8954,7 +8958,7 @@
       <c r="G633" s="8"/>
       <c r="H633" s="8"/>
       <c r="I633" s="8"/>
-      <c r="J633" s="9"/>
+      <c r="J633" s="15"/>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" s="7"/>
@@ -8966,7 +8970,7 @@
       <c r="G634" s="8"/>
       <c r="H634" s="8"/>
       <c r="I634" s="8"/>
-      <c r="J634" s="9"/>
+      <c r="J634" s="15"/>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" s="7"/>
@@ -8978,7 +8982,7 @@
       <c r="G635" s="8"/>
       <c r="H635" s="8"/>
       <c r="I635" s="8"/>
-      <c r="J635" s="9"/>
+      <c r="J635" s="15"/>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="7"/>
@@ -8990,7 +8994,7 @@
       <c r="G636" s="8"/>
       <c r="H636" s="8"/>
       <c r="I636" s="8"/>
-      <c r="J636" s="9"/>
+      <c r="J636" s="15"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="7"/>
@@ -9002,7 +9006,7 @@
       <c r="G637" s="8"/>
       <c r="H637" s="8"/>
       <c r="I637" s="8"/>
-      <c r="J637" s="9"/>
+      <c r="J637" s="15"/>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" s="7"/>
@@ -9014,7 +9018,7 @@
       <c r="G638" s="8"/>
       <c r="H638" s="8"/>
       <c r="I638" s="8"/>
-      <c r="J638" s="9"/>
+      <c r="J638" s="15"/>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" s="7"/>
@@ -9026,7 +9030,7 @@
       <c r="G639" s="8"/>
       <c r="H639" s="8"/>
       <c r="I639" s="8"/>
-      <c r="J639" s="9"/>
+      <c r="J639" s="15"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="7"/>
@@ -9038,7 +9042,7 @@
       <c r="G640" s="8"/>
       <c r="H640" s="8"/>
       <c r="I640" s="8"/>
-      <c r="J640" s="9"/>
+      <c r="J640" s="15"/>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="7"/>
@@ -9050,7 +9054,7 @@
       <c r="G641" s="8"/>
       <c r="H641" s="8"/>
       <c r="I641" s="8"/>
-      <c r="J641" s="9"/>
+      <c r="J641" s="15"/>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="7"/>
@@ -9062,7 +9066,7 @@
       <c r="G642" s="8"/>
       <c r="H642" s="8"/>
       <c r="I642" s="8"/>
-      <c r="J642" s="9"/>
+      <c r="J642" s="15"/>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" s="7"/>
@@ -9074,7 +9078,7 @@
       <c r="G643" s="8"/>
       <c r="H643" s="8"/>
       <c r="I643" s="8"/>
-      <c r="J643" s="9"/>
+      <c r="J643" s="15"/>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" s="7"/>
@@ -9086,7 +9090,7 @@
       <c r="G644" s="8"/>
       <c r="H644" s="8"/>
       <c r="I644" s="8"/>
-      <c r="J644" s="9"/>
+      <c r="J644" s="15"/>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" s="7"/>
@@ -9098,7 +9102,7 @@
       <c r="G645" s="8"/>
       <c r="H645" s="8"/>
       <c r="I645" s="8"/>
-      <c r="J645" s="9"/>
+      <c r="J645" s="15"/>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="7"/>
@@ -9110,7 +9114,7 @@
       <c r="G646" s="8"/>
       <c r="H646" s="8"/>
       <c r="I646" s="8"/>
-      <c r="J646" s="9"/>
+      <c r="J646" s="15"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="7"/>
@@ -9122,7 +9126,7 @@
       <c r="G647" s="8"/>
       <c r="H647" s="8"/>
       <c r="I647" s="8"/>
-      <c r="J647" s="9"/>
+      <c r="J647" s="15"/>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" s="7"/>
@@ -9134,7 +9138,7 @@
       <c r="G648" s="8"/>
       <c r="H648" s="8"/>
       <c r="I648" s="8"/>
-      <c r="J648" s="9"/>
+      <c r="J648" s="15"/>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" s="7"/>
@@ -9146,7 +9150,7 @@
       <c r="G649" s="8"/>
       <c r="H649" s="8"/>
       <c r="I649" s="8"/>
-      <c r="J649" s="9"/>
+      <c r="J649" s="15"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="7"/>
@@ -9158,7 +9162,7 @@
       <c r="G650" s="8"/>
       <c r="H650" s="8"/>
       <c r="I650" s="8"/>
-      <c r="J650" s="9"/>
+      <c r="J650" s="15"/>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="7"/>
@@ -9170,7 +9174,7 @@
       <c r="G651" s="8"/>
       <c r="H651" s="8"/>
       <c r="I651" s="8"/>
-      <c r="J651" s="9"/>
+      <c r="J651" s="15"/>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" s="7"/>
@@ -9182,7 +9186,7 @@
       <c r="G652" s="8"/>
       <c r="H652" s="8"/>
       <c r="I652" s="8"/>
-      <c r="J652" s="9"/>
+      <c r="J652" s="15"/>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="7"/>
@@ -9194,7 +9198,7 @@
       <c r="G653" s="8"/>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
-      <c r="J653" s="9"/>
+      <c r="J653" s="15"/>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" s="7"/>
@@ -9206,7 +9210,7 @@
       <c r="G654" s="8"/>
       <c r="H654" s="8"/>
       <c r="I654" s="8"/>
-      <c r="J654" s="9"/>
+      <c r="J654" s="15"/>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="7"/>
@@ -9218,7 +9222,7 @@
       <c r="G655" s="8"/>
       <c r="H655" s="8"/>
       <c r="I655" s="8"/>
-      <c r="J655" s="9"/>
+      <c r="J655" s="15"/>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="7"/>
@@ -9230,7 +9234,7 @@
       <c r="G656" s="8"/>
       <c r="H656" s="8"/>
       <c r="I656" s="8"/>
-      <c r="J656" s="9"/>
+      <c r="J656" s="15"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="7"/>
@@ -9242,7 +9246,7 @@
       <c r="G657" s="8"/>
       <c r="H657" s="8"/>
       <c r="I657" s="8"/>
-      <c r="J657" s="9"/>
+      <c r="J657" s="15"/>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="7"/>
@@ -9254,7 +9258,7 @@
       <c r="G658" s="8"/>
       <c r="H658" s="8"/>
       <c r="I658" s="8"/>
-      <c r="J658" s="9"/>
+      <c r="J658" s="15"/>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="7"/>
@@ -9266,7 +9270,7 @@
       <c r="G659" s="8"/>
       <c r="H659" s="8"/>
       <c r="I659" s="8"/>
-      <c r="J659" s="9"/>
+      <c r="J659" s="15"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="7"/>
@@ -9278,7 +9282,7 @@
       <c r="G660" s="8"/>
       <c r="H660" s="8"/>
       <c r="I660" s="8"/>
-      <c r="J660" s="9"/>
+      <c r="J660" s="15"/>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="7"/>
@@ -9290,7 +9294,7 @@
       <c r="G661" s="8"/>
       <c r="H661" s="8"/>
       <c r="I661" s="8"/>
-      <c r="J661" s="9"/>
+      <c r="J661" s="15"/>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="7"/>
@@ -9302,7 +9306,7 @@
       <c r="G662" s="8"/>
       <c r="H662" s="8"/>
       <c r="I662" s="8"/>
-      <c r="J662" s="9"/>
+      <c r="J662" s="15"/>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="7"/>
@@ -9314,7 +9318,7 @@
       <c r="G663" s="8"/>
       <c r="H663" s="8"/>
       <c r="I663" s="8"/>
-      <c r="J663" s="9"/>
+      <c r="J663" s="15"/>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="7"/>
@@ -9326,7 +9330,7 @@
       <c r="G664" s="8"/>
       <c r="H664" s="8"/>
       <c r="I664" s="8"/>
-      <c r="J664" s="9"/>
+      <c r="J664" s="15"/>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="7"/>
@@ -9338,7 +9342,7 @@
       <c r="G665" s="8"/>
       <c r="H665" s="8"/>
       <c r="I665" s="8"/>
-      <c r="J665" s="9"/>
+      <c r="J665" s="15"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="7"/>
@@ -9350,7 +9354,7 @@
       <c r="G666" s="8"/>
       <c r="H666" s="8"/>
       <c r="I666" s="8"/>
-      <c r="J666" s="9"/>
+      <c r="J666" s="15"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="7"/>
@@ -9362,7 +9366,7 @@
       <c r="G667" s="8"/>
       <c r="H667" s="8"/>
       <c r="I667" s="8"/>
-      <c r="J667" s="9"/>
+      <c r="J667" s="15"/>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="7"/>
@@ -9374,7 +9378,7 @@
       <c r="G668" s="8"/>
       <c r="H668" s="8"/>
       <c r="I668" s="8"/>
-      <c r="J668" s="9"/>
+      <c r="J668" s="15"/>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="7"/>
@@ -9386,7 +9390,7 @@
       <c r="G669" s="8"/>
       <c r="H669" s="8"/>
       <c r="I669" s="8"/>
-      <c r="J669" s="9"/>
+      <c r="J669" s="15"/>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="7"/>
@@ -9398,7 +9402,7 @@
       <c r="G670" s="8"/>
       <c r="H670" s="8"/>
       <c r="I670" s="8"/>
-      <c r="J670" s="9"/>
+      <c r="J670" s="15"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="7"/>
@@ -9410,7 +9414,7 @@
       <c r="G671" s="8"/>
       <c r="H671" s="8"/>
       <c r="I671" s="8"/>
-      <c r="J671" s="9"/>
+      <c r="J671" s="15"/>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" s="7"/>
@@ -9422,7 +9426,7 @@
       <c r="G672" s="8"/>
       <c r="H672" s="8"/>
       <c r="I672" s="8"/>
-      <c r="J672" s="9"/>
+      <c r="J672" s="15"/>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="7"/>
@@ -9434,7 +9438,7 @@
       <c r="G673" s="8"/>
       <c r="H673" s="8"/>
       <c r="I673" s="8"/>
-      <c r="J673" s="9"/>
+      <c r="J673" s="15"/>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="7"/>
@@ -9446,7 +9450,7 @@
       <c r="G674" s="8"/>
       <c r="H674" s="8"/>
       <c r="I674" s="8"/>
-      <c r="J674" s="9"/>
+      <c r="J674" s="15"/>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="7"/>
@@ -9458,7 +9462,7 @@
       <c r="G675" s="8"/>
       <c r="H675" s="8"/>
       <c r="I675" s="8"/>
-      <c r="J675" s="9"/>
+      <c r="J675" s="15"/>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="7"/>
@@ -9470,7 +9474,7 @@
       <c r="G676" s="8"/>
       <c r="H676" s="8"/>
       <c r="I676" s="8"/>
-      <c r="J676" s="9"/>
+      <c r="J676" s="15"/>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="7"/>
@@ -9482,7 +9486,7 @@
       <c r="G677" s="8"/>
       <c r="H677" s="8"/>
       <c r="I677" s="8"/>
-      <c r="J677" s="9"/>
+      <c r="J677" s="15"/>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="7"/>
@@ -9494,7 +9498,7 @@
       <c r="G678" s="8"/>
       <c r="H678" s="8"/>
       <c r="I678" s="8"/>
-      <c r="J678" s="9"/>
+      <c r="J678" s="15"/>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="7"/>
@@ -9506,7 +9510,7 @@
       <c r="G679" s="8"/>
       <c r="H679" s="8"/>
       <c r="I679" s="8"/>
-      <c r="J679" s="9"/>
+      <c r="J679" s="15"/>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" s="7"/>
@@ -9518,7 +9522,7 @@
       <c r="G680" s="8"/>
       <c r="H680" s="8"/>
       <c r="I680" s="8"/>
-      <c r="J680" s="9"/>
+      <c r="J680" s="15"/>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" s="7"/>
@@ -9530,7 +9534,7 @@
       <c r="G681" s="8"/>
       <c r="H681" s="8"/>
       <c r="I681" s="8"/>
-      <c r="J681" s="9"/>
+      <c r="J681" s="15"/>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" s="7"/>
@@ -9542,7 +9546,7 @@
       <c r="G682" s="8"/>
       <c r="H682" s="8"/>
       <c r="I682" s="8"/>
-      <c r="J682" s="9"/>
+      <c r="J682" s="15"/>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" s="7"/>
@@ -9554,7 +9558,7 @@
       <c r="G683" s="8"/>
       <c r="H683" s="8"/>
       <c r="I683" s="8"/>
-      <c r="J683" s="9"/>
+      <c r="J683" s="15"/>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" s="7"/>
@@ -9566,7 +9570,7 @@
       <c r="G684" s="8"/>
       <c r="H684" s="8"/>
       <c r="I684" s="8"/>
-      <c r="J684" s="9"/>
+      <c r="J684" s="15"/>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" s="7"/>
@@ -9578,7 +9582,7 @@
       <c r="G685" s="8"/>
       <c r="H685" s="8"/>
       <c r="I685" s="8"/>
-      <c r="J685" s="9"/>
+      <c r="J685" s="15"/>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" s="7"/>
@@ -9590,7 +9594,7 @@
       <c r="G686" s="8"/>
       <c r="H686" s="8"/>
       <c r="I686" s="8"/>
-      <c r="J686" s="9"/>
+      <c r="J686" s="15"/>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" s="7"/>
@@ -9602,7 +9606,7 @@
       <c r="G687" s="8"/>
       <c r="H687" s="8"/>
       <c r="I687" s="8"/>
-      <c r="J687" s="9"/>
+      <c r="J687" s="15"/>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" s="7"/>
@@ -9614,7 +9618,7 @@
       <c r="G688" s="8"/>
       <c r="H688" s="8"/>
       <c r="I688" s="8"/>
-      <c r="J688" s="9"/>
+      <c r="J688" s="15"/>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="7"/>
@@ -9626,7 +9630,7 @@
       <c r="G689" s="8"/>
       <c r="H689" s="8"/>
       <c r="I689" s="8"/>
-      <c r="J689" s="9"/>
+      <c r="J689" s="15"/>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" s="7"/>
@@ -9638,7 +9642,7 @@
       <c r="G690" s="8"/>
       <c r="H690" s="8"/>
       <c r="I690" s="8"/>
-      <c r="J690" s="9"/>
+      <c r="J690" s="15"/>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" s="7"/>
@@ -9650,7 +9654,7 @@
       <c r="G691" s="8"/>
       <c r="H691" s="8"/>
       <c r="I691" s="8"/>
-      <c r="J691" s="9"/>
+      <c r="J691" s="15"/>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" s="7"/>
@@ -9662,7 +9666,7 @@
       <c r="G692" s="8"/>
       <c r="H692" s="8"/>
       <c r="I692" s="8"/>
-      <c r="J692" s="9"/>
+      <c r="J692" s="15"/>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" s="7"/>
@@ -9674,7 +9678,7 @@
       <c r="G693" s="8"/>
       <c r="H693" s="8"/>
       <c r="I693" s="8"/>
-      <c r="J693" s="9"/>
+      <c r="J693" s="15"/>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" s="7"/>
@@ -9686,7 +9690,7 @@
       <c r="G694" s="8"/>
       <c r="H694" s="8"/>
       <c r="I694" s="8"/>
-      <c r="J694" s="9"/>
+      <c r="J694" s="15"/>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" s="7"/>
@@ -9698,7 +9702,7 @@
       <c r="G695" s="8"/>
       <c r="H695" s="8"/>
       <c r="I695" s="8"/>
-      <c r="J695" s="9"/>
+      <c r="J695" s="15"/>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" s="7"/>
@@ -9710,7 +9714,7 @@
       <c r="G696" s="8"/>
       <c r="H696" s="8"/>
       <c r="I696" s="8"/>
-      <c r="J696" s="9"/>
+      <c r="J696" s="15"/>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" s="7"/>
@@ -9722,7 +9726,7 @@
       <c r="G697" s="8"/>
       <c r="H697" s="8"/>
       <c r="I697" s="8"/>
-      <c r="J697" s="9"/>
+      <c r="J697" s="15"/>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" s="7"/>
@@ -9734,7 +9738,7 @@
       <c r="G698" s="8"/>
       <c r="H698" s="8"/>
       <c r="I698" s="8"/>
-      <c r="J698" s="9"/>
+      <c r="J698" s="15"/>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="7"/>
@@ -9746,7 +9750,7 @@
       <c r="G699" s="8"/>
       <c r="H699" s="8"/>
       <c r="I699" s="8"/>
-      <c r="J699" s="9"/>
+      <c r="J699" s="15"/>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" s="7"/>
@@ -9758,7 +9762,7 @@
       <c r="G700" s="8"/>
       <c r="H700" s="8"/>
       <c r="I700" s="8"/>
-      <c r="J700" s="9"/>
+      <c r="J700" s="15"/>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" s="7"/>
@@ -9770,7 +9774,7 @@
       <c r="G701" s="8"/>
       <c r="H701" s="8"/>
       <c r="I701" s="8"/>
-      <c r="J701" s="9"/>
+      <c r="J701" s="15"/>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" s="7"/>
@@ -9782,7 +9786,7 @@
       <c r="G702" s="8"/>
       <c r="H702" s="8"/>
       <c r="I702" s="8"/>
-      <c r="J702" s="9"/>
+      <c r="J702" s="15"/>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" s="7"/>
@@ -9794,7 +9798,7 @@
       <c r="G703" s="8"/>
       <c r="H703" s="8"/>
       <c r="I703" s="8"/>
-      <c r="J703" s="9"/>
+      <c r="J703" s="15"/>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="7"/>
@@ -9806,7 +9810,7 @@
       <c r="G704" s="8"/>
       <c r="H704" s="8"/>
       <c r="I704" s="8"/>
-      <c r="J704" s="9"/>
+      <c r="J704" s="15"/>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" s="7"/>
@@ -9818,7 +9822,7 @@
       <c r="G705" s="8"/>
       <c r="H705" s="8"/>
       <c r="I705" s="8"/>
-      <c r="J705" s="9"/>
+      <c r="J705" s="15"/>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" s="7"/>
@@ -9830,7 +9834,7 @@
       <c r="G706" s="8"/>
       <c r="H706" s="8"/>
       <c r="I706" s="8"/>
-      <c r="J706" s="9"/>
+      <c r="J706" s="15"/>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" s="7"/>
@@ -9842,7 +9846,7 @@
       <c r="G707" s="8"/>
       <c r="H707" s="8"/>
       <c r="I707" s="8"/>
-      <c r="J707" s="9"/>
+      <c r="J707" s="15"/>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" s="7"/>
@@ -9854,7 +9858,7 @@
       <c r="G708" s="8"/>
       <c r="H708" s="8"/>
       <c r="I708" s="8"/>
-      <c r="J708" s="9"/>
+      <c r="J708" s="15"/>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" s="7"/>
@@ -9866,7 +9870,7 @@
       <c r="G709" s="8"/>
       <c r="H709" s="8"/>
       <c r="I709" s="8"/>
-      <c r="J709" s="9"/>
+      <c r="J709" s="15"/>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" s="7"/>
@@ -9878,7 +9882,7 @@
       <c r="G710" s="8"/>
       <c r="H710" s="8"/>
       <c r="I710" s="8"/>
-      <c r="J710" s="9"/>
+      <c r="J710" s="15"/>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" s="7"/>
@@ -9890,7 +9894,7 @@
       <c r="G711" s="8"/>
       <c r="H711" s="8"/>
       <c r="I711" s="8"/>
-      <c r="J711" s="9"/>
+      <c r="J711" s="15"/>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" s="7"/>
@@ -9902,7 +9906,7 @@
       <c r="G712" s="8"/>
       <c r="H712" s="8"/>
       <c r="I712" s="8"/>
-      <c r="J712" s="9"/>
+      <c r="J712" s="15"/>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" s="7"/>
@@ -9914,7 +9918,7 @@
       <c r="G713" s="8"/>
       <c r="H713" s="8"/>
       <c r="I713" s="8"/>
-      <c r="J713" s="9"/>
+      <c r="J713" s="15"/>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" s="7"/>
@@ -9926,7 +9930,7 @@
       <c r="G714" s="8"/>
       <c r="H714" s="8"/>
       <c r="I714" s="8"/>
-      <c r="J714" s="9"/>
+      <c r="J714" s="15"/>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" s="7"/>
@@ -9938,7 +9942,7 @@
       <c r="G715" s="8"/>
       <c r="H715" s="8"/>
       <c r="I715" s="8"/>
-      <c r="J715" s="9"/>
+      <c r="J715" s="15"/>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" s="7"/>
@@ -9950,7 +9954,7 @@
       <c r="G716" s="8"/>
       <c r="H716" s="8"/>
       <c r="I716" s="8"/>
-      <c r="J716" s="9"/>
+      <c r="J716" s="15"/>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" s="7"/>
@@ -9962,7 +9966,7 @@
       <c r="G717" s="8"/>
       <c r="H717" s="8"/>
       <c r="I717" s="8"/>
-      <c r="J717" s="9"/>
+      <c r="J717" s="15"/>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" s="7"/>
@@ -9974,7 +9978,7 @@
       <c r="G718" s="8"/>
       <c r="H718" s="8"/>
       <c r="I718" s="8"/>
-      <c r="J718" s="9"/>
+      <c r="J718" s="15"/>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" s="7"/>
@@ -9986,7 +9990,7 @@
       <c r="G719" s="8"/>
       <c r="H719" s="8"/>
       <c r="I719" s="8"/>
-      <c r="J719" s="9"/>
+      <c r="J719" s="15"/>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" s="7"/>
@@ -9998,7 +10002,7 @@
       <c r="G720" s="8"/>
       <c r="H720" s="8"/>
       <c r="I720" s="8"/>
-      <c r="J720" s="9"/>
+      <c r="J720" s="15"/>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" s="7"/>
@@ -10010,7 +10014,7 @@
       <c r="G721" s="8"/>
       <c r="H721" s="8"/>
       <c r="I721" s="8"/>
-      <c r="J721" s="9"/>
+      <c r="J721" s="15"/>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" s="7"/>
@@ -10022,7 +10026,7 @@
       <c r="G722" s="8"/>
       <c r="H722" s="8"/>
       <c r="I722" s="8"/>
-      <c r="J722" s="9"/>
+      <c r="J722" s="15"/>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" s="7"/>
@@ -10034,7 +10038,7 @@
       <c r="G723" s="8"/>
       <c r="H723" s="8"/>
       <c r="I723" s="8"/>
-      <c r="J723" s="9"/>
+      <c r="J723" s="15"/>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" s="7"/>
@@ -10046,7 +10050,7 @@
       <c r="G724" s="8"/>
       <c r="H724" s="8"/>
       <c r="I724" s="8"/>
-      <c r="J724" s="9"/>
+      <c r="J724" s="15"/>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" s="7"/>
@@ -10058,7 +10062,7 @@
       <c r="G725" s="8"/>
       <c r="H725" s="8"/>
       <c r="I725" s="8"/>
-      <c r="J725" s="9"/>
+      <c r="J725" s="15"/>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" s="7"/>
@@ -10070,7 +10074,7 @@
       <c r="G726" s="8"/>
       <c r="H726" s="8"/>
       <c r="I726" s="8"/>
-      <c r="J726" s="9"/>
+      <c r="J726" s="15"/>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" s="7"/>
@@ -10082,7 +10086,7 @@
       <c r="G727" s="8"/>
       <c r="H727" s="8"/>
       <c r="I727" s="8"/>
-      <c r="J727" s="9"/>
+      <c r="J727" s="15"/>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" s="7"/>
@@ -10094,7 +10098,7 @@
       <c r="G728" s="8"/>
       <c r="H728" s="8"/>
       <c r="I728" s="8"/>
-      <c r="J728" s="9"/>
+      <c r="J728" s="15"/>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" s="7"/>
@@ -10106,7 +10110,7 @@
       <c r="G729" s="8"/>
       <c r="H729" s="8"/>
       <c r="I729" s="8"/>
-      <c r="J729" s="9"/>
+      <c r="J729" s="15"/>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" s="7"/>
@@ -10118,7 +10122,7 @@
       <c r="G730" s="8"/>
       <c r="H730" s="8"/>
       <c r="I730" s="8"/>
-      <c r="J730" s="9"/>
+      <c r="J730" s="15"/>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" s="7"/>
@@ -10130,7 +10134,7 @@
       <c r="G731" s="8"/>
       <c r="H731" s="8"/>
       <c r="I731" s="8"/>
-      <c r="J731" s="9"/>
+      <c r="J731" s="15"/>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" s="7"/>
@@ -10142,7 +10146,7 @@
       <c r="G732" s="8"/>
       <c r="H732" s="8"/>
       <c r="I732" s="8"/>
-      <c r="J732" s="9"/>
+      <c r="J732" s="15"/>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" s="7"/>
@@ -10154,7 +10158,7 @@
       <c r="G733" s="8"/>
       <c r="H733" s="8"/>
       <c r="I733" s="8"/>
-      <c r="J733" s="9"/>
+      <c r="J733" s="15"/>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" s="7"/>
@@ -10166,7 +10170,7 @@
       <c r="G734" s="8"/>
       <c r="H734" s="8"/>
       <c r="I734" s="8"/>
-      <c r="J734" s="9"/>
+      <c r="J734" s="15"/>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" s="7"/>
@@ -10178,7 +10182,7 @@
       <c r="G735" s="8"/>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
-      <c r="J735" s="9"/>
+      <c r="J735" s="15"/>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" s="7"/>
@@ -10190,7 +10194,7 @@
       <c r="G736" s="8"/>
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
-      <c r="J736" s="9"/>
+      <c r="J736" s="15"/>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" s="7"/>
@@ -10202,7 +10206,7 @@
       <c r="G737" s="8"/>
       <c r="H737" s="8"/>
       <c r="I737" s="8"/>
-      <c r="J737" s="9"/>
+      <c r="J737" s="15"/>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" s="7"/>
@@ -10214,7 +10218,7 @@
       <c r="G738" s="8"/>
       <c r="H738" s="8"/>
       <c r="I738" s="8"/>
-      <c r="J738" s="9"/>
+      <c r="J738" s="15"/>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" s="7"/>
@@ -10226,7 +10230,7 @@
       <c r="G739" s="8"/>
       <c r="H739" s="8"/>
       <c r="I739" s="8"/>
-      <c r="J739" s="9"/>
+      <c r="J739" s="15"/>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" s="7"/>
@@ -10238,7 +10242,7 @@
       <c r="G740" s="8"/>
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
-      <c r="J740" s="9"/>
+      <c r="J740" s="15"/>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" s="7"/>
@@ -10250,7 +10254,7 @@
       <c r="G741" s="8"/>
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
-      <c r="J741" s="9"/>
+      <c r="J741" s="15"/>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" s="7"/>
@@ -10262,7 +10266,7 @@
       <c r="G742" s="8"/>
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
-      <c r="J742" s="9"/>
+      <c r="J742" s="15"/>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" s="7"/>
@@ -10274,7 +10278,7 @@
       <c r="G743" s="8"/>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
-      <c r="J743" s="9"/>
+      <c r="J743" s="15"/>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" s="7"/>
@@ -10286,7 +10290,7 @@
       <c r="G744" s="8"/>
       <c r="H744" s="8"/>
       <c r="I744" s="8"/>
-      <c r="J744" s="9"/>
+      <c r="J744" s="15"/>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" s="7"/>
@@ -10298,7 +10302,7 @@
       <c r="G745" s="8"/>
       <c r="H745" s="8"/>
       <c r="I745" s="8"/>
-      <c r="J745" s="9"/>
+      <c r="J745" s="15"/>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" s="7"/>
@@ -10310,7 +10314,7 @@
       <c r="G746" s="8"/>
       <c r="H746" s="8"/>
       <c r="I746" s="8"/>
-      <c r="J746" s="9"/>
+      <c r="J746" s="15"/>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" s="7"/>
@@ -10322,7 +10326,7 @@
       <c r="G747" s="8"/>
       <c r="H747" s="8"/>
       <c r="I747" s="8"/>
-      <c r="J747" s="9"/>
+      <c r="J747" s="15"/>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" s="7"/>
@@ -10334,7 +10338,7 @@
       <c r="G748" s="8"/>
       <c r="H748" s="8"/>
       <c r="I748" s="8"/>
-      <c r="J748" s="9"/>
+      <c r="J748" s="15"/>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" s="7"/>
@@ -10346,7 +10350,7 @@
       <c r="G749" s="8"/>
       <c r="H749" s="8"/>
       <c r="I749" s="8"/>
-      <c r="J749" s="9"/>
+      <c r="J749" s="15"/>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" s="7"/>
@@ -10358,7 +10362,7 @@
       <c r="G750" s="8"/>
       <c r="H750" s="8"/>
       <c r="I750" s="8"/>
-      <c r="J750" s="9"/>
+      <c r="J750" s="15"/>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" s="7"/>
@@ -10370,7 +10374,7 @@
       <c r="G751" s="8"/>
       <c r="H751" s="8"/>
       <c r="I751" s="8"/>
-      <c r="J751" s="9"/>
+      <c r="J751" s="15"/>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" s="7"/>
@@ -10382,7 +10386,7 @@
       <c r="G752" s="8"/>
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
-      <c r="J752" s="9"/>
+      <c r="J752" s="15"/>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" s="7"/>
@@ -10394,7 +10398,7 @@
       <c r="G753" s="8"/>
       <c r="H753" s="8"/>
       <c r="I753" s="8"/>
-      <c r="J753" s="9"/>
+      <c r="J753" s="15"/>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" s="7"/>
@@ -10406,7 +10410,7 @@
       <c r="G754" s="8"/>
       <c r="H754" s="8"/>
       <c r="I754" s="8"/>
-      <c r="J754" s="9"/>
+      <c r="J754" s="15"/>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" s="7"/>
@@ -10418,7 +10422,7 @@
       <c r="G755" s="8"/>
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
-      <c r="J755" s="9"/>
+      <c r="J755" s="15"/>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" s="7"/>
@@ -10430,7 +10434,7 @@
       <c r="G756" s="8"/>
       <c r="H756" s="8"/>
       <c r="I756" s="8"/>
-      <c r="J756" s="9"/>
+      <c r="J756" s="15"/>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" s="7"/>
@@ -10442,7 +10446,7 @@
       <c r="G757" s="8"/>
       <c r="H757" s="8"/>
       <c r="I757" s="8"/>
-      <c r="J757" s="9"/>
+      <c r="J757" s="15"/>
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" s="7"/>
@@ -10454,7 +10458,7 @@
       <c r="G758" s="8"/>
       <c r="H758" s="8"/>
       <c r="I758" s="8"/>
-      <c r="J758" s="9"/>
+      <c r="J758" s="15"/>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" s="7"/>
@@ -10466,7 +10470,7 @@
       <c r="G759" s="8"/>
       <c r="H759" s="8"/>
       <c r="I759" s="8"/>
-      <c r="J759" s="9"/>
+      <c r="J759" s="15"/>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" s="7"/>
@@ -10478,7 +10482,7 @@
       <c r="G760" s="8"/>
       <c r="H760" s="8"/>
       <c r="I760" s="8"/>
-      <c r="J760" s="9"/>
+      <c r="J760" s="15"/>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" s="7"/>
@@ -10490,7 +10494,7 @@
       <c r="G761" s="8"/>
       <c r="H761" s="8"/>
       <c r="I761" s="8"/>
-      <c r="J761" s="9"/>
+      <c r="J761" s="15"/>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" s="7"/>
@@ -10502,7 +10506,7 @@
       <c r="G762" s="8"/>
       <c r="H762" s="8"/>
       <c r="I762" s="8"/>
-      <c r="J762" s="9"/>
+      <c r="J762" s="15"/>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" s="7"/>
@@ -10514,7 +10518,7 @@
       <c r="G763" s="8"/>
       <c r="H763" s="8"/>
       <c r="I763" s="8"/>
-      <c r="J763" s="9"/>
+      <c r="J763" s="15"/>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" s="7"/>
@@ -10526,7 +10530,7 @@
       <c r="G764" s="8"/>
       <c r="H764" s="8"/>
       <c r="I764" s="8"/>
-      <c r="J764" s="9"/>
+      <c r="J764" s="15"/>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" s="7"/>
@@ -10538,7 +10542,7 @@
       <c r="G765" s="8"/>
       <c r="H765" s="8"/>
       <c r="I765" s="8"/>
-      <c r="J765" s="9"/>
+      <c r="J765" s="15"/>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A766" s="7"/>
@@ -10550,7 +10554,7 @@
       <c r="G766" s="8"/>
       <c r="H766" s="8"/>
       <c r="I766" s="8"/>
-      <c r="J766" s="9"/>
+      <c r="J766" s="15"/>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A767" s="7"/>
@@ -10562,7 +10566,7 @@
       <c r="G767" s="8"/>
       <c r="H767" s="8"/>
       <c r="I767" s="8"/>
-      <c r="J767" s="9"/>
+      <c r="J767" s="15"/>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A768" s="7"/>
@@ -10574,7 +10578,7 @@
       <c r="G768" s="8"/>
       <c r="H768" s="8"/>
       <c r="I768" s="8"/>
-      <c r="J768" s="9"/>
+      <c r="J768" s="15"/>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A769" s="7"/>
@@ -10586,7 +10590,7 @@
       <c r="G769" s="8"/>
       <c r="H769" s="8"/>
       <c r="I769" s="8"/>
-      <c r="J769" s="9"/>
+      <c r="J769" s="15"/>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A770" s="7"/>
@@ -10598,7 +10602,7 @@
       <c r="G770" s="8"/>
       <c r="H770" s="8"/>
       <c r="I770" s="8"/>
-      <c r="J770" s="9"/>
+      <c r="J770" s="15"/>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A771" s="7"/>
@@ -10610,7 +10614,7 @@
       <c r="G771" s="8"/>
       <c r="H771" s="8"/>
       <c r="I771" s="8"/>
-      <c r="J771" s="9"/>
+      <c r="J771" s="15"/>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A772" s="7"/>
@@ -10622,7 +10626,7 @@
       <c r="G772" s="8"/>
       <c r="H772" s="8"/>
       <c r="I772" s="8"/>
-      <c r="J772" s="9"/>
+      <c r="J772" s="15"/>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A773" s="7"/>
@@ -10634,7 +10638,7 @@
       <c r="G773" s="8"/>
       <c r="H773" s="8"/>
       <c r="I773" s="8"/>
-      <c r="J773" s="9"/>
+      <c r="J773" s="15"/>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A774" s="7"/>
@@ -10646,7 +10650,7 @@
       <c r="G774" s="8"/>
       <c r="H774" s="8"/>
       <c r="I774" s="8"/>
-      <c r="J774" s="9"/>
+      <c r="J774" s="15"/>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A775" s="7"/>
@@ -10658,7 +10662,7 @@
       <c r="G775" s="8"/>
       <c r="H775" s="8"/>
       <c r="I775" s="8"/>
-      <c r="J775" s="9"/>
+      <c r="J775" s="15"/>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A776" s="7"/>
@@ -10670,7 +10674,7 @@
       <c r="G776" s="8"/>
       <c r="H776" s="8"/>
       <c r="I776" s="8"/>
-      <c r="J776" s="9"/>
+      <c r="J776" s="15"/>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A777" s="7"/>
@@ -10682,7 +10686,7 @@
       <c r="G777" s="8"/>
       <c r="H777" s="8"/>
       <c r="I777" s="8"/>
-      <c r="J777" s="9"/>
+      <c r="J777" s="15"/>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A778" s="7"/>
@@ -10694,7 +10698,7 @@
       <c r="G778" s="8"/>
       <c r="H778" s="8"/>
       <c r="I778" s="8"/>
-      <c r="J778" s="9"/>
+      <c r="J778" s="15"/>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A779" s="7"/>
@@ -10706,7 +10710,7 @@
       <c r="G779" s="8"/>
       <c r="H779" s="8"/>
       <c r="I779" s="8"/>
-      <c r="J779" s="9"/>
+      <c r="J779" s="15"/>
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A780" s="7"/>
@@ -10718,7 +10722,7 @@
       <c r="G780" s="8"/>
       <c r="H780" s="8"/>
       <c r="I780" s="8"/>
-      <c r="J780" s="9"/>
+      <c r="J780" s="15"/>
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A781" s="7"/>
@@ -10730,7 +10734,7 @@
       <c r="G781" s="8"/>
       <c r="H781" s="8"/>
       <c r="I781" s="8"/>
-      <c r="J781" s="9"/>
+      <c r="J781" s="15"/>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A782" s="7"/>
@@ -10742,7 +10746,7 @@
       <c r="G782" s="8"/>
       <c r="H782" s="8"/>
       <c r="I782" s="8"/>
-      <c r="J782" s="9"/>
+      <c r="J782" s="15"/>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A783" s="7"/>
@@ -10754,7 +10758,7 @@
       <c r="G783" s="8"/>
       <c r="H783" s="8"/>
       <c r="I783" s="8"/>
-      <c r="J783" s="9"/>
+      <c r="J783" s="15"/>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A784" s="7"/>
@@ -10766,7 +10770,7 @@
       <c r="G784" s="8"/>
       <c r="H784" s="8"/>
       <c r="I784" s="8"/>
-      <c r="J784" s="9"/>
+      <c r="J784" s="15"/>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A785" s="7"/>
@@ -10778,7 +10782,7 @@
       <c r="G785" s="8"/>
       <c r="H785" s="8"/>
       <c r="I785" s="8"/>
-      <c r="J785" s="9"/>
+      <c r="J785" s="15"/>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A786" s="7"/>
@@ -10790,7 +10794,7 @@
       <c r="G786" s="8"/>
       <c r="H786" s="8"/>
       <c r="I786" s="8"/>
-      <c r="J786" s="9"/>
+      <c r="J786" s="15"/>
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A787" s="7"/>
@@ -10802,7 +10806,7 @@
       <c r="G787" s="8"/>
       <c r="H787" s="8"/>
       <c r="I787" s="8"/>
-      <c r="J787" s="9"/>
+      <c r="J787" s="15"/>
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A788" s="7"/>
@@ -10814,7 +10818,7 @@
       <c r="G788" s="8"/>
       <c r="H788" s="8"/>
       <c r="I788" s="8"/>
-      <c r="J788" s="9"/>
+      <c r="J788" s="15"/>
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A789" s="7"/>
@@ -10826,7 +10830,7 @@
       <c r="G789" s="8"/>
       <c r="H789" s="8"/>
       <c r="I789" s="8"/>
-      <c r="J789" s="9"/>
+      <c r="J789" s="15"/>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A790" s="7"/>
@@ -10838,7 +10842,7 @@
       <c r="G790" s="8"/>
       <c r="H790" s="8"/>
       <c r="I790" s="8"/>
-      <c r="J790" s="9"/>
+      <c r="J790" s="15"/>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A791" s="7"/>
@@ -10850,7 +10854,7 @@
       <c r="G791" s="8"/>
       <c r="H791" s="8"/>
       <c r="I791" s="8"/>
-      <c r="J791" s="9"/>
+      <c r="J791" s="15"/>
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A792" s="7"/>
@@ -10862,7 +10866,7 @@
       <c r="G792" s="8"/>
       <c r="H792" s="8"/>
       <c r="I792" s="8"/>
-      <c r="J792" s="9"/>
+      <c r="J792" s="15"/>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A793" s="7"/>
@@ -10874,7 +10878,7 @@
       <c r="G793" s="8"/>
       <c r="H793" s="8"/>
       <c r="I793" s="8"/>
-      <c r="J793" s="9"/>
+      <c r="J793" s="15"/>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A794" s="7"/>
@@ -10886,7 +10890,7 @@
       <c r="G794" s="8"/>
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
-      <c r="J794" s="9"/>
+      <c r="J794" s="15"/>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A795" s="7"/>
@@ -10898,7 +10902,7 @@
       <c r="G795" s="8"/>
       <c r="H795" s="8"/>
       <c r="I795" s="8"/>
-      <c r="J795" s="9"/>
+      <c r="J795" s="15"/>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A796" s="7"/>
@@ -10910,7 +10914,7 @@
       <c r="G796" s="8"/>
       <c r="H796" s="8"/>
       <c r="I796" s="8"/>
-      <c r="J796" s="9"/>
+      <c r="J796" s="15"/>
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A797" s="7"/>
@@ -10922,7 +10926,7 @@
       <c r="G797" s="8"/>
       <c r="H797" s="8"/>
       <c r="I797" s="8"/>
-      <c r="J797" s="9"/>
+      <c r="J797" s="15"/>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A798" s="7"/>
@@ -10934,7 +10938,7 @@
       <c r="G798" s="8"/>
       <c r="H798" s="8"/>
       <c r="I798" s="8"/>
-      <c r="J798" s="9"/>
+      <c r="J798" s="15"/>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A799" s="7"/>
@@ -10946,7 +10950,7 @@
       <c r="G799" s="8"/>
       <c r="H799" s="8"/>
       <c r="I799" s="8"/>
-      <c r="J799" s="9"/>
+      <c r="J799" s="15"/>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A800" s="7"/>
@@ -10958,7 +10962,7 @@
       <c r="G800" s="8"/>
       <c r="H800" s="8"/>
       <c r="I800" s="8"/>
-      <c r="J800" s="9"/>
+      <c r="J800" s="15"/>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A801" s="7"/>
@@ -10970,7 +10974,7 @@
       <c r="G801" s="8"/>
       <c r="H801" s="8"/>
       <c r="I801" s="8"/>
-      <c r="J801" s="9"/>
+      <c r="J801" s="15"/>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A802" s="7"/>
@@ -10982,7 +10986,7 @@
       <c r="G802" s="8"/>
       <c r="H802" s="8"/>
       <c r="I802" s="8"/>
-      <c r="J802" s="9"/>
+      <c r="J802" s="15"/>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A803" s="7"/>
@@ -10994,7 +10998,7 @@
       <c r="G803" s="8"/>
       <c r="H803" s="8"/>
       <c r="I803" s="8"/>
-      <c r="J803" s="9"/>
+      <c r="J803" s="15"/>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A804" s="7"/>
@@ -11006,7 +11010,7 @@
       <c r="G804" s="8"/>
       <c r="H804" s="8"/>
       <c r="I804" s="8"/>
-      <c r="J804" s="9"/>
+      <c r="J804" s="15"/>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A805" s="7"/>
@@ -11018,7 +11022,7 @@
       <c r="G805" s="8"/>
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
-      <c r="J805" s="9"/>
+      <c r="J805" s="15"/>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A806" s="7"/>
@@ -11030,7 +11034,7 @@
       <c r="G806" s="8"/>
       <c r="H806" s="8"/>
       <c r="I806" s="8"/>
-      <c r="J806" s="9"/>
+      <c r="J806" s="15"/>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A807" s="7"/>
@@ -11042,7 +11046,7 @@
       <c r="G807" s="8"/>
       <c r="H807" s="8"/>
       <c r="I807" s="8"/>
-      <c r="J807" s="9"/>
+      <c r="J807" s="15"/>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A808" s="7"/>
@@ -11054,7 +11058,7 @@
       <c r="G808" s="8"/>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
-      <c r="J808" s="9"/>
+      <c r="J808" s="15"/>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A809" s="7"/>
@@ -11066,7 +11070,7 @@
       <c r="G809" s="8"/>
       <c r="H809" s="8"/>
       <c r="I809" s="8"/>
-      <c r="J809" s="9"/>
+      <c r="J809" s="15"/>
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A810" s="7"/>
@@ -11078,7 +11082,7 @@
       <c r="G810" s="8"/>
       <c r="H810" s="8"/>
       <c r="I810" s="8"/>
-      <c r="J810" s="9"/>
+      <c r="J810" s="15"/>
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A811" s="7"/>
@@ -11090,7 +11094,7 @@
       <c r="G811" s="8"/>
       <c r="H811" s="8"/>
       <c r="I811" s="8"/>
-      <c r="J811" s="9"/>
+      <c r="J811" s="15"/>
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A812" s="7"/>
@@ -11102,7 +11106,7 @@
       <c r="G812" s="8"/>
       <c r="H812" s="8"/>
       <c r="I812" s="8"/>
-      <c r="J812" s="9"/>
+      <c r="J812" s="15"/>
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A813" s="7"/>
@@ -11114,7 +11118,7 @@
       <c r="G813" s="8"/>
       <c r="H813" s="8"/>
       <c r="I813" s="8"/>
-      <c r="J813" s="9"/>
+      <c r="J813" s="15"/>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A814" s="7"/>
@@ -11126,7 +11130,7 @@
       <c r="G814" s="8"/>
       <c r="H814" s="8"/>
       <c r="I814" s="8"/>
-      <c r="J814" s="9"/>
+      <c r="J814" s="15"/>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A815" s="7"/>
@@ -11138,7 +11142,7 @@
       <c r="G815" s="8"/>
       <c r="H815" s="8"/>
       <c r="I815" s="8"/>
-      <c r="J815" s="9"/>
+      <c r="J815" s="15"/>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A816" s="7"/>
@@ -11150,7 +11154,7 @@
       <c r="G816" s="8"/>
       <c r="H816" s="8"/>
       <c r="I816" s="8"/>
-      <c r="J816" s="9"/>
+      <c r="J816" s="15"/>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A817" s="7"/>
@@ -11162,7 +11166,7 @@
       <c r="G817" s="8"/>
       <c r="H817" s="8"/>
       <c r="I817" s="8"/>
-      <c r="J817" s="9"/>
+      <c r="J817" s="15"/>
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A818" s="7"/>
@@ -11174,7 +11178,7 @@
       <c r="G818" s="8"/>
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
-      <c r="J818" s="9"/>
+      <c r="J818" s="15"/>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A819" s="7"/>
@@ -11186,7 +11190,7 @@
       <c r="G819" s="8"/>
       <c r="H819" s="8"/>
       <c r="I819" s="8"/>
-      <c r="J819" s="9"/>
+      <c r="J819" s="15"/>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A820" s="7"/>
@@ -11198,7 +11202,7 @@
       <c r="G820" s="8"/>
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
-      <c r="J820" s="9"/>
+      <c r="J820" s="15"/>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A821" s="7"/>
@@ -11210,7 +11214,7 @@
       <c r="G821" s="8"/>
       <c r="H821" s="8"/>
       <c r="I821" s="8"/>
-      <c r="J821" s="9"/>
+      <c r="J821" s="15"/>
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A822" s="7"/>
@@ -11222,7 +11226,7 @@
       <c r="G822" s="8"/>
       <c r="H822" s="8"/>
       <c r="I822" s="8"/>
-      <c r="J822" s="9"/>
+      <c r="J822" s="15"/>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A823" s="7"/>
@@ -11234,7 +11238,7 @@
       <c r="G823" s="8"/>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
-      <c r="J823" s="9"/>
+      <c r="J823" s="15"/>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A824" s="7"/>
@@ -11246,7 +11250,7 @@
       <c r="G824" s="8"/>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
-      <c r="J824" s="9"/>
+      <c r="J824" s="15"/>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A825" s="7"/>
@@ -11258,7 +11262,7 @@
       <c r="G825" s="8"/>
       <c r="H825" s="8"/>
       <c r="I825" s="8"/>
-      <c r="J825" s="9"/>
+      <c r="J825" s="15"/>
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A826" s="7"/>
@@ -11270,7 +11274,7 @@
       <c r="G826" s="8"/>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
-      <c r="J826" s="9"/>
+      <c r="J826" s="15"/>
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A827" s="7"/>
@@ -11282,7 +11286,7 @@
       <c r="G827" s="8"/>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
-      <c r="J827" s="9"/>
+      <c r="J827" s="15"/>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A828" s="7"/>
@@ -11294,7 +11298,7 @@
       <c r="G828" s="8"/>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
-      <c r="J828" s="9"/>
+      <c r="J828" s="15"/>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A829" s="7"/>
@@ -11306,7 +11310,7 @@
       <c r="G829" s="8"/>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
-      <c r="J829" s="9"/>
+      <c r="J829" s="15"/>
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A830" s="7"/>
@@ -11318,7 +11322,7 @@
       <c r="G830" s="8"/>
       <c r="H830" s="8"/>
       <c r="I830" s="8"/>
-      <c r="J830" s="9"/>
+      <c r="J830" s="15"/>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A831" s="7"/>
@@ -11330,7 +11334,7 @@
       <c r="G831" s="8"/>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
-      <c r="J831" s="9"/>
+      <c r="J831" s="15"/>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A832" s="7"/>
@@ -11342,7 +11346,7 @@
       <c r="G832" s="8"/>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
-      <c r="J832" s="9"/>
+      <c r="J832" s="15"/>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A833" s="7"/>
@@ -11354,7 +11358,7 @@
       <c r="G833" s="8"/>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
-      <c r="J833" s="9"/>
+      <c r="J833" s="15"/>
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A834" s="7"/>
@@ -11366,7 +11370,7 @@
       <c r="G834" s="8"/>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
-      <c r="J834" s="9"/>
+      <c r="J834" s="15"/>
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A835" s="7"/>
@@ -11378,7 +11382,7 @@
       <c r="G835" s="8"/>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
-      <c r="J835" s="9"/>
+      <c r="J835" s="15"/>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A836" s="7"/>
@@ -11390,7 +11394,7 @@
       <c r="G836" s="8"/>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
-      <c r="J836" s="9"/>
+      <c r="J836" s="15"/>
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A837" s="7"/>
@@ -11402,7 +11406,7 @@
       <c r="G837" s="8"/>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
-      <c r="J837" s="9"/>
+      <c r="J837" s="15"/>
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A838" s="7"/>
@@ -11414,7 +11418,7 @@
       <c r="G838" s="8"/>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
-      <c r="J838" s="9"/>
+      <c r="J838" s="15"/>
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A839" s="7"/>
@@ -11426,7 +11430,7 @@
       <c r="G839" s="8"/>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
-      <c r="J839" s="9"/>
+      <c r="J839" s="15"/>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A840" s="7"/>
@@ -11438,7 +11442,7 @@
       <c r="G840" s="8"/>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
-      <c r="J840" s="9"/>
+      <c r="J840" s="15"/>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A841" s="7"/>
@@ -11450,7 +11454,7 @@
       <c r="G841" s="8"/>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
-      <c r="J841" s="9"/>
+      <c r="J841" s="15"/>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A842" s="7"/>
@@ -11462,7 +11466,7 @@
       <c r="G842" s="8"/>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
-      <c r="J842" s="9"/>
+      <c r="J842" s="15"/>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A843" s="7"/>
@@ -11474,7 +11478,7 @@
       <c r="G843" s="8"/>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
-      <c r="J843" s="9"/>
+      <c r="J843" s="15"/>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A844" s="7"/>
@@ -11486,7 +11490,7 @@
       <c r="G844" s="8"/>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
-      <c r="J844" s="9"/>
+      <c r="J844" s="15"/>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A845" s="7"/>
@@ -11498,7 +11502,7 @@
       <c r="G845" s="8"/>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
-      <c r="J845" s="9"/>
+      <c r="J845" s="15"/>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A846" s="7"/>
@@ -11510,7 +11514,7 @@
       <c r="G846" s="8"/>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
-      <c r="J846" s="9"/>
+      <c r="J846" s="15"/>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A847" s="7"/>
@@ -11522,7 +11526,7 @@
       <c r="G847" s="8"/>
       <c r="H847" s="8"/>
       <c r="I847" s="8"/>
-      <c r="J847" s="9"/>
+      <c r="J847" s="15"/>
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A848" s="7"/>
@@ -11534,7 +11538,7 @@
       <c r="G848" s="8"/>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
-      <c r="J848" s="9"/>
+      <c r="J848" s="15"/>
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A849" s="7"/>
@@ -11546,7 +11550,7 @@
       <c r="G849" s="8"/>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
-      <c r="J849" s="9"/>
+      <c r="J849" s="15"/>
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A850" s="7"/>
@@ -11558,7 +11562,7 @@
       <c r="G850" s="8"/>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
-      <c r="J850" s="9"/>
+      <c r="J850" s="15"/>
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A851" s="7"/>
@@ -11570,7 +11574,7 @@
       <c r="G851" s="8"/>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
-      <c r="J851" s="9"/>
+      <c r="J851" s="15"/>
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A852" s="7"/>
@@ -11582,7 +11586,7 @@
       <c r="G852" s="8"/>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
-      <c r="J852" s="9"/>
+      <c r="J852" s="15"/>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A853" s="7"/>
@@ -11594,7 +11598,7 @@
       <c r="G853" s="8"/>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
-      <c r="J853" s="9"/>
+      <c r="J853" s="15"/>
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A854" s="7"/>
@@ -11606,7 +11610,7 @@
       <c r="G854" s="8"/>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
-      <c r="J854" s="9"/>
+      <c r="J854" s="15"/>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A855" s="7"/>
@@ -11618,7 +11622,7 @@
       <c r="G855" s="8"/>
       <c r="H855" s="8"/>
       <c r="I855" s="8"/>
-      <c r="J855" s="9"/>
+      <c r="J855" s="15"/>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A856" s="7"/>
@@ -11630,7 +11634,7 @@
       <c r="G856" s="8"/>
       <c r="H856" s="8"/>
       <c r="I856" s="8"/>
-      <c r="J856" s="9"/>
+      <c r="J856" s="15"/>
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A857" s="7"/>
@@ -11642,7 +11646,7 @@
       <c r="G857" s="8"/>
       <c r="H857" s="8"/>
       <c r="I857" s="8"/>
-      <c r="J857" s="9"/>
+      <c r="J857" s="15"/>
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A858" s="7"/>
@@ -11654,7 +11658,7 @@
       <c r="G858" s="8"/>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
-      <c r="J858" s="9"/>
+      <c r="J858" s="15"/>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A859" s="7"/>
@@ -11666,7 +11670,7 @@
       <c r="G859" s="8"/>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
-      <c r="J859" s="9"/>
+      <c r="J859" s="15"/>
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A860" s="7"/>
@@ -11678,7 +11682,7 @@
       <c r="G860" s="8"/>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
-      <c r="J860" s="9"/>
+      <c r="J860" s="15"/>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A861" s="7"/>
@@ -11690,7 +11694,7 @@
       <c r="G861" s="8"/>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
-      <c r="J861" s="9"/>
+      <c r="J861" s="15"/>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A862" s="7"/>
@@ -11702,7 +11706,7 @@
       <c r="G862" s="8"/>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
-      <c r="J862" s="9"/>
+      <c r="J862" s="15"/>
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A863" s="7"/>
@@ -11714,7 +11718,7 @@
       <c r="G863" s="8"/>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
-      <c r="J863" s="9"/>
+      <c r="J863" s="15"/>
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A864" s="7"/>
@@ -11726,7 +11730,7 @@
       <c r="G864" s="8"/>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
-      <c r="J864" s="9"/>
+      <c r="J864" s="15"/>
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A865" s="7"/>
@@ -11738,7 +11742,7 @@
       <c r="G865" s="8"/>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
-      <c r="J865" s="9"/>
+      <c r="J865" s="15"/>
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A866" s="7"/>
@@ -11750,7 +11754,7 @@
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
-      <c r="J866" s="9"/>
+      <c r="J866" s="15"/>
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A867" s="7"/>
@@ -11762,7 +11766,7 @@
       <c r="G867" s="8"/>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
-      <c r="J867" s="9"/>
+      <c r="J867" s="15"/>
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A868" s="7"/>
@@ -11774,7 +11778,7 @@
       <c r="G868" s="8"/>
       <c r="H868" s="8"/>
       <c r="I868" s="8"/>
-      <c r="J868" s="9"/>
+      <c r="J868" s="15"/>
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A869" s="7"/>
@@ -11786,7 +11790,7 @@
       <c r="G869" s="8"/>
       <c r="H869" s="8"/>
       <c r="I869" s="8"/>
-      <c r="J869" s="9"/>
+      <c r="J869" s="15"/>
     </row>
     <row r="870" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A870" s="7"/>
@@ -11798,7 +11802,7 @@
       <c r="G870" s="8"/>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
-      <c r="J870" s="9"/>
+      <c r="J870" s="15"/>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A871" s="7"/>
@@ -11810,7 +11814,7 @@
       <c r="G871" s="8"/>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
-      <c r="J871" s="9"/>
+      <c r="J871" s="15"/>
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A872" s="7"/>
@@ -11822,7 +11826,7 @@
       <c r="G872" s="8"/>
       <c r="H872" s="8"/>
       <c r="I872" s="8"/>
-      <c r="J872" s="9"/>
+      <c r="J872" s="15"/>
     </row>
     <row r="873" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A873" s="7"/>
@@ -11834,7 +11838,7 @@
       <c r="G873" s="8"/>
       <c r="H873" s="8"/>
       <c r="I873" s="8"/>
-      <c r="J873" s="9"/>
+      <c r="J873" s="15"/>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A874" s="7"/>
@@ -11846,7 +11850,7 @@
       <c r="G874" s="8"/>
       <c r="H874" s="8"/>
       <c r="I874" s="8"/>
-      <c r="J874" s="9"/>
+      <c r="J874" s="15"/>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A875" s="7"/>
@@ -11858,7 +11862,7 @@
       <c r="G875" s="8"/>
       <c r="H875" s="8"/>
       <c r="I875" s="8"/>
-      <c r="J875" s="9"/>
+      <c r="J875" s="15"/>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A876" s="7"/>
@@ -11870,7 +11874,7 @@
       <c r="G876" s="8"/>
       <c r="H876" s="8"/>
       <c r="I876" s="8"/>
-      <c r="J876" s="9"/>
+      <c r="J876" s="15"/>
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A877" s="7"/>
@@ -11882,7 +11886,7 @@
       <c r="G877" s="8"/>
       <c r="H877" s="8"/>
       <c r="I877" s="8"/>
-      <c r="J877" s="9"/>
+      <c r="J877" s="15"/>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A878" s="7"/>
@@ -11894,7 +11898,7 @@
       <c r="G878" s="8"/>
       <c r="H878" s="8"/>
       <c r="I878" s="8"/>
-      <c r="J878" s="9"/>
+      <c r="J878" s="15"/>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A879" s="7"/>
@@ -11906,7 +11910,7 @@
       <c r="G879" s="8"/>
       <c r="H879" s="8"/>
       <c r="I879" s="8"/>
-      <c r="J879" s="9"/>
+      <c r="J879" s="15"/>
     </row>
     <row r="880" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A880" s="7"/>
@@ -11918,7 +11922,7 @@
       <c r="G880" s="8"/>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
-      <c r="J880" s="9"/>
+      <c r="J880" s="15"/>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A881" s="7"/>
@@ -11930,7 +11934,7 @@
       <c r="G881" s="8"/>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
-      <c r="J881" s="9"/>
+      <c r="J881" s="15"/>
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A882" s="7"/>
@@ -11942,7 +11946,7 @@
       <c r="G882" s="8"/>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
-      <c r="J882" s="9"/>
+      <c r="J882" s="15"/>
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A883" s="7"/>
@@ -11954,7 +11958,7 @@
       <c r="G883" s="8"/>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
-      <c r="J883" s="9"/>
+      <c r="J883" s="15"/>
     </row>
     <row r="884" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A884" s="7"/>
@@ -11966,7 +11970,7 @@
       <c r="G884" s="8"/>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
-      <c r="J884" s="9"/>
+      <c r="J884" s="15"/>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A885" s="7"/>
@@ -11978,7 +11982,7 @@
       <c r="G885" s="8"/>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
-      <c r="J885" s="9"/>
+      <c r="J885" s="15"/>
     </row>
     <row r="886" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A886" s="7"/>
@@ -11990,7 +11994,7 @@
       <c r="G886" s="8"/>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
-      <c r="J886" s="9"/>
+      <c r="J886" s="15"/>
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A887" s="7"/>
@@ -12002,7 +12006,7 @@
       <c r="G887" s="8"/>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
-      <c r="J887" s="9"/>
+      <c r="J887" s="15"/>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A888" s="7"/>
@@ -12014,7 +12018,7 @@
       <c r="G888" s="8"/>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
-      <c r="J888" s="9"/>
+      <c r="J888" s="15"/>
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A889" s="7"/>
@@ -12026,7 +12030,7 @@
       <c r="G889" s="8"/>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
-      <c r="J889" s="9"/>
+      <c r="J889" s="15"/>
     </row>
     <row r="890" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A890" s="7"/>
@@ -12038,7 +12042,7 @@
       <c r="G890" s="8"/>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
-      <c r="J890" s="9"/>
+      <c r="J890" s="15"/>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A891" s="7"/>
@@ -12050,7 +12054,7 @@
       <c r="G891" s="8"/>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
-      <c r="J891" s="9"/>
+      <c r="J891" s="15"/>
     </row>
     <row r="892" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A892" s="7"/>
@@ -12062,7 +12066,7 @@
       <c r="G892" s="8"/>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
-      <c r="J892" s="9"/>
+      <c r="J892" s="15"/>
     </row>
     <row r="893" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A893" s="7"/>
@@ -12074,7 +12078,7 @@
       <c r="G893" s="8"/>
       <c r="H893" s="8"/>
       <c r="I893" s="8"/>
-      <c r="J893" s="9"/>
+      <c r="J893" s="15"/>
     </row>
     <row r="894" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A894" s="7"/>
@@ -12086,7 +12090,7 @@
       <c r="G894" s="8"/>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
-      <c r="J894" s="9"/>
+      <c r="J894" s="15"/>
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A895" s="7"/>
@@ -12098,7 +12102,7 @@
       <c r="G895" s="8"/>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
-      <c r="J895" s="9"/>
+      <c r="J895" s="15"/>
     </row>
     <row r="896" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A896" s="7"/>
@@ -12110,7 +12114,7 @@
       <c r="G896" s="8"/>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
-      <c r="J896" s="9"/>
+      <c r="J896" s="15"/>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A897" s="7"/>
@@ -12122,7 +12126,7 @@
       <c r="G897" s="8"/>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
-      <c r="J897" s="9"/>
+      <c r="J897" s="15"/>
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A898" s="7"/>
@@ -12134,7 +12138,7 @@
       <c r="G898" s="8"/>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
-      <c r="J898" s="9"/>
+      <c r="J898" s="15"/>
     </row>
     <row r="899" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A899" s="7"/>
@@ -12146,7 +12150,7 @@
       <c r="G899" s="8"/>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
-      <c r="J899" s="9"/>
+      <c r="J899" s="15"/>
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A900" s="7"/>
@@ -12158,7 +12162,7 @@
       <c r="G900" s="8"/>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
-      <c r="J900" s="9"/>
+      <c r="J900" s="15"/>
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A901" s="7"/>
@@ -12170,7 +12174,7 @@
       <c r="G901" s="8"/>
       <c r="H901" s="8"/>
       <c r="I901" s="8"/>
-      <c r="J901" s="9"/>
+      <c r="J901" s="15"/>
     </row>
     <row r="902" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A902" s="7"/>
@@ -12182,7 +12186,7 @@
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
       <c r="I902" s="8"/>
-      <c r="J902" s="9"/>
+      <c r="J902" s="15"/>
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A903" s="7"/>
@@ -12194,7 +12198,7 @@
       <c r="G903" s="8"/>
       <c r="H903" s="8"/>
       <c r="I903" s="8"/>
-      <c r="J903" s="9"/>
+      <c r="J903" s="15"/>
     </row>
     <row r="904" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A904" s="7"/>
@@ -12206,7 +12210,7 @@
       <c r="G904" s="8"/>
       <c r="H904" s="8"/>
       <c r="I904" s="8"/>
-      <c r="J904" s="9"/>
+      <c r="J904" s="15"/>
     </row>
     <row r="905" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A905" s="7"/>
@@ -12218,7 +12222,7 @@
       <c r="G905" s="8"/>
       <c r="H905" s="8"/>
       <c r="I905" s="8"/>
-      <c r="J905" s="9"/>
+      <c r="J905" s="15"/>
     </row>
     <row r="906" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A906" s="7"/>
@@ -12230,7 +12234,7 @@
       <c r="G906" s="8"/>
       <c r="H906" s="8"/>
       <c r="I906" s="8"/>
-      <c r="J906" s="9"/>
+      <c r="J906" s="15"/>
     </row>
     <row r="907" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A907" s="7"/>
@@ -12242,7 +12246,7 @@
       <c r="G907" s="8"/>
       <c r="H907" s="8"/>
       <c r="I907" s="8"/>
-      <c r="J907" s="9"/>
+      <c r="J907" s="15"/>
     </row>
     <row r="908" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A908" s="7"/>
@@ -12254,7 +12258,7 @@
       <c r="G908" s="8"/>
       <c r="H908" s="8"/>
       <c r="I908" s="8"/>
-      <c r="J908" s="9"/>
+      <c r="J908" s="15"/>
     </row>
     <row r="909" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A909" s="7"/>
@@ -12266,7 +12270,7 @@
       <c r="G909" s="8"/>
       <c r="H909" s="8"/>
       <c r="I909" s="8"/>
-      <c r="J909" s="9"/>
+      <c r="J909" s="15"/>
     </row>
     <row r="910" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A910" s="7"/>
@@ -12278,7 +12282,7 @@
       <c r="G910" s="8"/>
       <c r="H910" s="8"/>
       <c r="I910" s="8"/>
-      <c r="J910" s="9"/>
+      <c r="J910" s="15"/>
     </row>
     <row r="911" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A911" s="7"/>
@@ -12290,7 +12294,7 @@
       <c r="G911" s="8"/>
       <c r="H911" s="8"/>
       <c r="I911" s="8"/>
-      <c r="J911" s="9"/>
+      <c r="J911" s="15"/>
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A912" s="7"/>
@@ -12302,7 +12306,7 @@
       <c r="G912" s="8"/>
       <c r="H912" s="8"/>
       <c r="I912" s="8"/>
-      <c r="J912" s="9"/>
+      <c r="J912" s="15"/>
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A913" s="7"/>
@@ -12314,7 +12318,7 @@
       <c r="G913" s="8"/>
       <c r="H913" s="8"/>
       <c r="I913" s="8"/>
-      <c r="J913" s="9"/>
+      <c r="J913" s="15"/>
     </row>
     <row r="914" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A914" s="7"/>
@@ -12326,7 +12330,7 @@
       <c r="G914" s="8"/>
       <c r="H914" s="8"/>
       <c r="I914" s="8"/>
-      <c r="J914" s="9"/>
+      <c r="J914" s="15"/>
     </row>
     <row r="915" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A915" s="7"/>
@@ -12338,7 +12342,7 @@
       <c r="G915" s="8"/>
       <c r="H915" s="8"/>
       <c r="I915" s="8"/>
-      <c r="J915" s="9"/>
+      <c r="J915" s="15"/>
     </row>
     <row r="916" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A916" s="7"/>
@@ -12350,7 +12354,7 @@
       <c r="G916" s="8"/>
       <c r="H916" s="8"/>
       <c r="I916" s="8"/>
-      <c r="J916" s="9"/>
+      <c r="J916" s="15"/>
     </row>
     <row r="917" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A917" s="7"/>
@@ -12362,7 +12366,7 @@
       <c r="G917" s="8"/>
       <c r="H917" s="8"/>
       <c r="I917" s="8"/>
-      <c r="J917" s="9"/>
+      <c r="J917" s="15"/>
     </row>
     <row r="918" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A918" s="7"/>
@@ -12374,7 +12378,7 @@
       <c r="G918" s="8"/>
       <c r="H918" s="8"/>
       <c r="I918" s="8"/>
-      <c r="J918" s="9"/>
+      <c r="J918" s="15"/>
     </row>
     <row r="919" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A919" s="7"/>
@@ -12386,7 +12390,7 @@
       <c r="G919" s="8"/>
       <c r="H919" s="8"/>
       <c r="I919" s="8"/>
-      <c r="J919" s="9"/>
+      <c r="J919" s="15"/>
     </row>
     <row r="920" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A920" s="7"/>
@@ -12398,7 +12402,7 @@
       <c r="G920" s="8"/>
       <c r="H920" s="8"/>
       <c r="I920" s="8"/>
-      <c r="J920" s="9"/>
+      <c r="J920" s="15"/>
     </row>
     <row r="921" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A921" s="7"/>
@@ -12410,7 +12414,7 @@
       <c r="G921" s="8"/>
       <c r="H921" s="8"/>
       <c r="I921" s="8"/>
-      <c r="J921" s="9"/>
+      <c r="J921" s="15"/>
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A922" s="7"/>
@@ -12422,7 +12426,7 @@
       <c r="G922" s="8"/>
       <c r="H922" s="8"/>
       <c r="I922" s="8"/>
-      <c r="J922" s="9"/>
+      <c r="J922" s="15"/>
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A923" s="7"/>
@@ -12434,7 +12438,7 @@
       <c r="G923" s="8"/>
       <c r="H923" s="8"/>
       <c r="I923" s="8"/>
-      <c r="J923" s="9"/>
+      <c r="J923" s="15"/>
     </row>
     <row r="924" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A924" s="7"/>
@@ -12446,7 +12450,7 @@
       <c r="G924" s="8"/>
       <c r="H924" s="8"/>
       <c r="I924" s="8"/>
-      <c r="J924" s="9"/>
+      <c r="J924" s="15"/>
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A925" s="7"/>
@@ -12458,7 +12462,7 @@
       <c r="G925" s="8"/>
       <c r="H925" s="8"/>
       <c r="I925" s="8"/>
-      <c r="J925" s="9"/>
+      <c r="J925" s="15"/>
     </row>
     <row r="926" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A926" s="7"/>
@@ -12470,7 +12474,7 @@
       <c r="G926" s="8"/>
       <c r="H926" s="8"/>
       <c r="I926" s="8"/>
-      <c r="J926" s="9"/>
+      <c r="J926" s="15"/>
     </row>
     <row r="927" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A927" s="7"/>
@@ -12482,7 +12486,7 @@
       <c r="G927" s="8"/>
       <c r="H927" s="8"/>
       <c r="I927" s="8"/>
-      <c r="J927" s="9"/>
+      <c r="J927" s="15"/>
     </row>
     <row r="928" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A928" s="7"/>
@@ -12494,7 +12498,7 @@
       <c r="G928" s="8"/>
       <c r="H928" s="8"/>
       <c r="I928" s="8"/>
-      <c r="J928" s="9"/>
+      <c r="J928" s="15"/>
     </row>
     <row r="929" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A929" s="7"/>
@@ -12506,7 +12510,7 @@
       <c r="G929" s="8"/>
       <c r="H929" s="8"/>
       <c r="I929" s="8"/>
-      <c r="J929" s="9"/>
+      <c r="J929" s="15"/>
     </row>
     <row r="930" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A930" s="7"/>
@@ -12518,7 +12522,7 @@
       <c r="G930" s="8"/>
       <c r="H930" s="8"/>
       <c r="I930" s="8"/>
-      <c r="J930" s="9"/>
+      <c r="J930" s="15"/>
     </row>
     <row r="931" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A931" s="7"/>
@@ -12530,7 +12534,7 @@
       <c r="G931" s="8"/>
       <c r="H931" s="8"/>
       <c r="I931" s="8"/>
-      <c r="J931" s="9"/>
+      <c r="J931" s="15"/>
     </row>
     <row r="932" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A932" s="7"/>
@@ -12542,7 +12546,7 @@
       <c r="G932" s="8"/>
       <c r="H932" s="8"/>
       <c r="I932" s="8"/>
-      <c r="J932" s="9"/>
+      <c r="J932" s="15"/>
     </row>
     <row r="933" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A933" s="7"/>
@@ -12554,7 +12558,7 @@
       <c r="G933" s="8"/>
       <c r="H933" s="8"/>
       <c r="I933" s="8"/>
-      <c r="J933" s="9"/>
+      <c r="J933" s="15"/>
     </row>
     <row r="934" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A934" s="7"/>
@@ -12566,7 +12570,7 @@
       <c r="G934" s="8"/>
       <c r="H934" s="8"/>
       <c r="I934" s="8"/>
-      <c r="J934" s="9"/>
+      <c r="J934" s="15"/>
     </row>
     <row r="935" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A935" s="7"/>
@@ -12578,7 +12582,7 @@
       <c r="G935" s="8"/>
       <c r="H935" s="8"/>
       <c r="I935" s="8"/>
-      <c r="J935" s="9"/>
+      <c r="J935" s="15"/>
     </row>
     <row r="936" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A936" s="7"/>
@@ -12590,7 +12594,7 @@
       <c r="G936" s="8"/>
       <c r="H936" s="8"/>
       <c r="I936" s="8"/>
-      <c r="J936" s="9"/>
+      <c r="J936" s="15"/>
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A937" s="7"/>
@@ -12602,7 +12606,7 @@
       <c r="G937" s="8"/>
       <c r="H937" s="8"/>
       <c r="I937" s="8"/>
-      <c r="J937" s="9"/>
+      <c r="J937" s="15"/>
     </row>
     <row r="938" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A938" s="7"/>
@@ -12614,7 +12618,7 @@
       <c r="G938" s="8"/>
       <c r="H938" s="8"/>
       <c r="I938" s="8"/>
-      <c r="J938" s="9"/>
+      <c r="J938" s="15"/>
     </row>
     <row r="939" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A939" s="7"/>
@@ -12626,7 +12630,7 @@
       <c r="G939" s="8"/>
       <c r="H939" s="8"/>
       <c r="I939" s="8"/>
-      <c r="J939" s="9"/>
+      <c r="J939" s="15"/>
     </row>
     <row r="940" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A940" s="7"/>
@@ -12638,7 +12642,7 @@
       <c r="G940" s="8"/>
       <c r="H940" s="8"/>
       <c r="I940" s="8"/>
-      <c r="J940" s="9"/>
+      <c r="J940" s="15"/>
     </row>
     <row r="941" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A941" s="7"/>
@@ -12650,7 +12654,7 @@
       <c r="G941" s="8"/>
       <c r="H941" s="8"/>
       <c r="I941" s="8"/>
-      <c r="J941" s="9"/>
+      <c r="J941" s="15"/>
     </row>
     <row r="942" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A942" s="7"/>
@@ -12662,7 +12666,7 @@
       <c r="G942" s="8"/>
       <c r="H942" s="8"/>
       <c r="I942" s="8"/>
-      <c r="J942" s="9"/>
+      <c r="J942" s="15"/>
     </row>
     <row r="943" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A943" s="7"/>
@@ -12674,7 +12678,7 @@
       <c r="G943" s="8"/>
       <c r="H943" s="8"/>
       <c r="I943" s="8"/>
-      <c r="J943" s="9"/>
+      <c r="J943" s="15"/>
     </row>
     <row r="944" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A944" s="7"/>
@@ -12686,7 +12690,7 @@
       <c r="G944" s="8"/>
       <c r="H944" s="8"/>
       <c r="I944" s="8"/>
-      <c r="J944" s="9"/>
+      <c r="J944" s="15"/>
     </row>
     <row r="945" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A945" s="7"/>
@@ -12698,7 +12702,7 @@
       <c r="G945" s="8"/>
       <c r="H945" s="8"/>
       <c r="I945" s="8"/>
-      <c r="J945" s="9"/>
+      <c r="J945" s="15"/>
     </row>
     <row r="946" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A946" s="7"/>
@@ -12710,7 +12714,7 @@
       <c r="G946" s="8"/>
       <c r="H946" s="8"/>
       <c r="I946" s="8"/>
-      <c r="J946" s="9"/>
+      <c r="J946" s="15"/>
     </row>
     <row r="947" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A947" s="7"/>
@@ -12722,7 +12726,7 @@
       <c r="G947" s="8"/>
       <c r="H947" s="8"/>
       <c r="I947" s="8"/>
-      <c r="J947" s="9"/>
+      <c r="J947" s="15"/>
     </row>
     <row r="948" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A948" s="7"/>
@@ -12734,7 +12738,7 @@
       <c r="G948" s="8"/>
       <c r="H948" s="8"/>
       <c r="I948" s="8"/>
-      <c r="J948" s="9"/>
+      <c r="J948" s="15"/>
     </row>
     <row r="949" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A949" s="7"/>
@@ -12746,7 +12750,7 @@
       <c r="G949" s="8"/>
       <c r="H949" s="8"/>
       <c r="I949" s="8"/>
-      <c r="J949" s="9"/>
+      <c r="J949" s="15"/>
     </row>
     <row r="950" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A950" s="7"/>
@@ -12758,7 +12762,7 @@
       <c r="G950" s="8"/>
       <c r="H950" s="8"/>
       <c r="I950" s="8"/>
-      <c r="J950" s="9"/>
+      <c r="J950" s="15"/>
     </row>
     <row r="951" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A951" s="7"/>
@@ -12770,7 +12774,7 @@
       <c r="G951" s="8"/>
       <c r="H951" s="8"/>
       <c r="I951" s="8"/>
-      <c r="J951" s="9"/>
+      <c r="J951" s="15"/>
     </row>
     <row r="952" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A952" s="7"/>
@@ -12782,7 +12786,7 @@
       <c r="G952" s="8"/>
       <c r="H952" s="8"/>
       <c r="I952" s="8"/>
-      <c r="J952" s="9"/>
+      <c r="J952" s="15"/>
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A953" s="7"/>
@@ -12794,7 +12798,7 @@
       <c r="G953" s="8"/>
       <c r="H953" s="8"/>
       <c r="I953" s="8"/>
-      <c r="J953" s="9"/>
+      <c r="J953" s="15"/>
     </row>
     <row r="954" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A954" s="7"/>
@@ -12806,7 +12810,7 @@
       <c r="G954" s="8"/>
       <c r="H954" s="8"/>
       <c r="I954" s="8"/>
-      <c r="J954" s="9"/>
+      <c r="J954" s="15"/>
     </row>
     <row r="955" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A955" s="7"/>
@@ -12818,7 +12822,7 @@
       <c r="G955" s="8"/>
       <c r="H955" s="8"/>
       <c r="I955" s="8"/>
-      <c r="J955" s="9"/>
+      <c r="J955" s="15"/>
     </row>
     <row r="956" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A956" s="7"/>
@@ -12830,7 +12834,7 @@
       <c r="G956" s="8"/>
       <c r="H956" s="8"/>
       <c r="I956" s="8"/>
-      <c r="J956" s="9"/>
+      <c r="J956" s="15"/>
     </row>
     <row r="957" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A957" s="7"/>
@@ -12842,7 +12846,7 @@
       <c r="G957" s="8"/>
       <c r="H957" s="8"/>
       <c r="I957" s="8"/>
-      <c r="J957" s="9"/>
+      <c r="J957" s="15"/>
     </row>
     <row r="958" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A958" s="7"/>
@@ -12854,7 +12858,7 @@
       <c r="G958" s="8"/>
       <c r="H958" s="8"/>
       <c r="I958" s="8"/>
-      <c r="J958" s="9"/>
+      <c r="J958" s="15"/>
     </row>
     <row r="959" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A959" s="7"/>
@@ -12866,7 +12870,7 @@
       <c r="G959" s="8"/>
       <c r="H959" s="8"/>
       <c r="I959" s="8"/>
-      <c r="J959" s="9"/>
+      <c r="J959" s="15"/>
     </row>
     <row r="960" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A960" s="7"/>
@@ -12878,7 +12882,7 @@
       <c r="G960" s="8"/>
       <c r="H960" s="8"/>
       <c r="I960" s="8"/>
-      <c r="J960" s="9"/>
+      <c r="J960" s="15"/>
     </row>
     <row r="961" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A961" s="7"/>
@@ -12890,7 +12894,7 @@
       <c r="G961" s="8"/>
       <c r="H961" s="8"/>
       <c r="I961" s="8"/>
-      <c r="J961" s="9"/>
+      <c r="J961" s="15"/>
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A962" s="7"/>
@@ -12902,7 +12906,7 @@
       <c r="G962" s="8"/>
       <c r="H962" s="8"/>
       <c r="I962" s="8"/>
-      <c r="J962" s="9"/>
+      <c r="J962" s="15"/>
     </row>
     <row r="963" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A963" s="7"/>
@@ -12914,7 +12918,7 @@
       <c r="G963" s="8"/>
       <c r="H963" s="8"/>
       <c r="I963" s="8"/>
-      <c r="J963" s="9"/>
+      <c r="J963" s="15"/>
     </row>
     <row r="964" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A964" s="7"/>
@@ -12926,7 +12930,7 @@
       <c r="G964" s="8"/>
       <c r="H964" s="8"/>
       <c r="I964" s="8"/>
-      <c r="J964" s="9"/>
+      <c r="J964" s="15"/>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A965" s="7"/>
@@ -12938,7 +12942,7 @@
       <c r="G965" s="8"/>
       <c r="H965" s="8"/>
       <c r="I965" s="8"/>
-      <c r="J965" s="9"/>
+      <c r="J965" s="15"/>
     </row>
     <row r="966" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A966" s="7"/>
@@ -12950,7 +12954,7 @@
       <c r="G966" s="8"/>
       <c r="H966" s="8"/>
       <c r="I966" s="8"/>
-      <c r="J966" s="9"/>
+      <c r="J966" s="15"/>
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A967" s="7"/>
@@ -12962,7 +12966,7 @@
       <c r="G967" s="8"/>
       <c r="H967" s="8"/>
       <c r="I967" s="8"/>
-      <c r="J967" s="9"/>
+      <c r="J967" s="15"/>
     </row>
     <row r="968" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A968" s="7"/>
@@ -12974,7 +12978,7 @@
       <c r="G968" s="8"/>
       <c r="H968" s="8"/>
       <c r="I968" s="8"/>
-      <c r="J968" s="9"/>
+      <c r="J968" s="15"/>
     </row>
     <row r="969" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A969" s="7"/>
@@ -12986,7 +12990,7 @@
       <c r="G969" s="8"/>
       <c r="H969" s="8"/>
       <c r="I969" s="8"/>
-      <c r="J969" s="9"/>
+      <c r="J969" s="15"/>
     </row>
     <row r="970" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A970" s="7"/>
@@ -12998,7 +13002,7 @@
       <c r="G970" s="8"/>
       <c r="H970" s="8"/>
       <c r="I970" s="8"/>
-      <c r="J970" s="9"/>
+      <c r="J970" s="15"/>
     </row>
     <row r="971" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A971" s="7"/>
@@ -13010,7 +13014,7 @@
       <c r="G971" s="8"/>
       <c r="H971" s="8"/>
       <c r="I971" s="8"/>
-      <c r="J971" s="9"/>
+      <c r="J971" s="15"/>
     </row>
     <row r="972" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A972" s="7"/>
@@ -13022,7 +13026,7 @@
       <c r="G972" s="8"/>
       <c r="H972" s="8"/>
       <c r="I972" s="8"/>
-      <c r="J972" s="9"/>
+      <c r="J972" s="15"/>
     </row>
     <row r="973" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A973" s="7"/>
@@ -13034,7 +13038,7 @@
       <c r="G973" s="8"/>
       <c r="H973" s="8"/>
       <c r="I973" s="8"/>
-      <c r="J973" s="9"/>
+      <c r="J973" s="15"/>
     </row>
     <row r="974" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A974" s="7"/>
@@ -13046,7 +13050,7 @@
       <c r="G974" s="8"/>
       <c r="H974" s="8"/>
       <c r="I974" s="8"/>
-      <c r="J974" s="9"/>
+      <c r="J974" s="15"/>
     </row>
     <row r="975" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A975" s="7"/>
@@ -13058,7 +13062,7 @@
       <c r="G975" s="8"/>
       <c r="H975" s="8"/>
       <c r="I975" s="8"/>
-      <c r="J975" s="9"/>
+      <c r="J975" s="15"/>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A976" s="7"/>
@@ -13070,7 +13074,7 @@
       <c r="G976" s="8"/>
       <c r="H976" s="8"/>
       <c r="I976" s="8"/>
-      <c r="J976" s="9"/>
+      <c r="J976" s="15"/>
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A977" s="7"/>
@@ -13082,7 +13086,7 @@
       <c r="G977" s="8"/>
       <c r="H977" s="8"/>
       <c r="I977" s="8"/>
-      <c r="J977" s="9"/>
+      <c r="J977" s="15"/>
     </row>
     <row r="978" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A978" s="7"/>
@@ -13094,7 +13098,7 @@
       <c r="G978" s="8"/>
       <c r="H978" s="8"/>
       <c r="I978" s="8"/>
-      <c r="J978" s="9"/>
+      <c r="J978" s="15"/>
     </row>
     <row r="979" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A979" s="7"/>
@@ -13106,7 +13110,7 @@
       <c r="G979" s="8"/>
       <c r="H979" s="8"/>
       <c r="I979" s="8"/>
-      <c r="J979" s="9"/>
+      <c r="J979" s="15"/>
     </row>
     <row r="980" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A980" s="7"/>
@@ -13118,7 +13122,7 @@
       <c r="G980" s="8"/>
       <c r="H980" s="8"/>
       <c r="I980" s="8"/>
-      <c r="J980" s="9"/>
+      <c r="J980" s="15"/>
     </row>
     <row r="981" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A981" s="7"/>
@@ -13130,7 +13134,7 @@
       <c r="G981" s="8"/>
       <c r="H981" s="8"/>
       <c r="I981" s="8"/>
-      <c r="J981" s="9"/>
+      <c r="J981" s="15"/>
     </row>
     <row r="982" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A982" s="7"/>
@@ -13142,7 +13146,7 @@
       <c r="G982" s="8"/>
       <c r="H982" s="8"/>
       <c r="I982" s="8"/>
-      <c r="J982" s="9"/>
+      <c r="J982" s="15"/>
     </row>
     <row r="983" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A983" s="7"/>
@@ -13154,7 +13158,7 @@
       <c r="G983" s="8"/>
       <c r="H983" s="8"/>
       <c r="I983" s="8"/>
-      <c r="J983" s="9"/>
+      <c r="J983" s="15"/>
     </row>
     <row r="984" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A984" s="7"/>
@@ -13166,7 +13170,7 @@
       <c r="G984" s="8"/>
       <c r="H984" s="8"/>
       <c r="I984" s="8"/>
-      <c r="J984" s="9"/>
+      <c r="J984" s="15"/>
     </row>
     <row r="985" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A985" s="7"/>
@@ -13178,7 +13182,7 @@
       <c r="G985" s="8"/>
       <c r="H985" s="8"/>
       <c r="I985" s="8"/>
-      <c r="J985" s="9"/>
+      <c r="J985" s="15"/>
     </row>
     <row r="986" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A986" s="7"/>
@@ -13190,7 +13194,7 @@
       <c r="G986" s="8"/>
       <c r="H986" s="8"/>
       <c r="I986" s="8"/>
-      <c r="J986" s="9"/>
+      <c r="J986" s="15"/>
     </row>
     <row r="987" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A987" s="7"/>
@@ -13202,7 +13206,7 @@
       <c r="G987" s="8"/>
       <c r="H987" s="8"/>
       <c r="I987" s="8"/>
-      <c r="J987" s="9"/>
+      <c r="J987" s="15"/>
     </row>
     <row r="988" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A988" s="7"/>
@@ -13214,7 +13218,7 @@
       <c r="G988" s="8"/>
       <c r="H988" s="8"/>
       <c r="I988" s="8"/>
-      <c r="J988" s="9"/>
+      <c r="J988" s="15"/>
     </row>
     <row r="989" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A989" s="7"/>
@@ -13226,7 +13230,7 @@
       <c r="G989" s="8"/>
       <c r="H989" s="8"/>
       <c r="I989" s="8"/>
-      <c r="J989" s="9"/>
+      <c r="J989" s="15"/>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A990" s="7"/>
@@ -13238,7 +13242,7 @@
       <c r="G990" s="8"/>
       <c r="H990" s="8"/>
       <c r="I990" s="8"/>
-      <c r="J990" s="9"/>
+      <c r="J990" s="15"/>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A991" s="7"/>
@@ -13250,7 +13254,7 @@
       <c r="G991" s="8"/>
       <c r="H991" s="8"/>
       <c r="I991" s="8"/>
-      <c r="J991" s="9"/>
+      <c r="J991" s="15"/>
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A992" s="7"/>
@@ -13262,7 +13266,7 @@
       <c r="G992" s="8"/>
       <c r="H992" s="8"/>
       <c r="I992" s="8"/>
-      <c r="J992" s="9"/>
+      <c r="J992" s="15"/>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A993" s="7"/>
@@ -13274,7 +13278,7 @@
       <c r="G993" s="8"/>
       <c r="H993" s="8"/>
       <c r="I993" s="8"/>
-      <c r="J993" s="9"/>
+      <c r="J993" s="15"/>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A994" s="7"/>
@@ -13286,7 +13290,7 @@
       <c r="G994" s="8"/>
       <c r="H994" s="8"/>
       <c r="I994" s="8"/>
-      <c r="J994" s="9"/>
+      <c r="J994" s="15"/>
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A995" s="7"/>
@@ -13298,7 +13302,7 @@
       <c r="G995" s="8"/>
       <c r="H995" s="8"/>
       <c r="I995" s="8"/>
-      <c r="J995" s="9"/>
+      <c r="J995" s="15"/>
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A996" s="7"/>
@@ -13310,7 +13314,7 @@
       <c r="G996" s="8"/>
       <c r="H996" s="8"/>
       <c r="I996" s="8"/>
-      <c r="J996" s="9"/>
+      <c r="J996" s="15"/>
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A997" s="7"/>
@@ -13322,7 +13326,7 @@
       <c r="G997" s="8"/>
       <c r="H997" s="8"/>
       <c r="I997" s="8"/>
-      <c r="J997" s="9"/>
+      <c r="J997" s="15"/>
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A998" s="7"/>
@@ -13334,19 +13338,19 @@
       <c r="G998" s="8"/>
       <c r="H998" s="8"/>
       <c r="I998" s="8"/>
-      <c r="J998" s="9"/>
+      <c r="J998" s="15"/>
     </row>
     <row r="999" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A999" s="10"/>
-      <c r="B999" s="11"/>
-      <c r="C999" s="11"/>
-      <c r="D999" s="11"/>
-      <c r="E999" s="11"/>
-      <c r="F999" s="11"/>
-      <c r="G999" s="11"/>
-      <c r="H999" s="11"/>
-      <c r="I999" s="11"/>
-      <c r="J999" s="12"/>
+      <c r="A999" s="9"/>
+      <c r="B999" s="10"/>
+      <c r="C999" s="10"/>
+      <c r="D999" s="10"/>
+      <c r="E999" s="10"/>
+      <c r="F999" s="10"/>
+      <c r="G999" s="10"/>
+      <c r="H999" s="10"/>
+      <c r="I999" s="10"/>
+      <c r="J999" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
